--- a/Gowtham_ULS_New/TestData/ijaraTestData.xlsx
+++ b/Gowtham_ULS_New/TestData/ijaraTestData.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
     <sheet name="IncomeDetailsList" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="New_Application" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>UserName</t>
   </si>
@@ -30,9 +30,6 @@
     <t>UserType</t>
   </si>
   <si>
-    <t>Admin@1</t>
-  </si>
-  <si>
     <t>TestCaseID</t>
   </si>
   <si>
@@ -48,10 +45,25 @@
     <t>FrequencyInput</t>
   </si>
   <si>
-    <t>0343</t>
-  </si>
-  <si>
     <t>Days</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>in02256</t>
+  </si>
+  <si>
+    <t>AT_NEWAPP_02</t>
+  </si>
+  <si>
+    <t>DS_AT_NEWAPP_02</t>
+  </si>
+  <si>
+    <t>SelectOptionInProduct</t>
+  </si>
+  <si>
+    <t>LPO Financing</t>
   </si>
 </sst>
 </file>
@@ -447,7 +459,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -473,15 +485,15 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId1" display="Admin@1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -492,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -504,24 +516,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -531,12 +543,42 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Gowtham_ULS_New/TestData/ijaraTestData.xlsx
+++ b/Gowtham_ULS_New/TestData/ijaraTestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>UserName</t>
   </si>
@@ -48,12 +48,6 @@
     <t>Days</t>
   </si>
   <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>in02256</t>
-  </si>
-  <si>
     <t>AT_NEWAPP_02</t>
   </si>
   <si>
@@ -64,6 +58,105 @@
   </si>
   <si>
     <t>LPO Financing</t>
+  </si>
+  <si>
+    <t>SelectOptionInSubProduct</t>
+  </si>
+  <si>
+    <t>0377</t>
+  </si>
+  <si>
+    <t>Admin@1</t>
+  </si>
+  <si>
+    <t>SubProductField</t>
+  </si>
+  <si>
+    <t>TotalFinanceAmountRequested</t>
+  </si>
+  <si>
+    <t>DeclaredNetMonthlyIncome</t>
+  </si>
+  <si>
+    <t>DeclaredCurrentObligations</t>
+  </si>
+  <si>
+    <t>Special Promotion/Campaign</t>
+  </si>
+  <si>
+    <t>SourcingChannel</t>
+  </si>
+  <si>
+    <t>BusinessCenterCode</t>
+  </si>
+  <si>
+    <t>ServicingType</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>ServicingBranch</t>
+  </si>
+  <si>
+    <t>SpokeLocation</t>
+  </si>
+  <si>
+    <t>ClosingStaffOrServicingStaffOrRM</t>
+  </si>
+  <si>
+    <t>TopupType</t>
+  </si>
+  <si>
+    <t>TopupApplicationNo</t>
+  </si>
+  <si>
+    <t>SourcingType</t>
+  </si>
+  <si>
+    <t>LPO Financing-LPO Financing</t>
+  </si>
+  <si>
+    <t>AT_NWP_03</t>
+  </si>
+  <si>
+    <t>DS_AT_NWP_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Honda Car Promotion scheme </t>
+  </si>
+  <si>
+    <t>DST</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Business Center-Retail Banking </t>
+  </si>
+  <si>
+    <t>Financier</t>
+  </si>
+  <si>
+    <t>Azentio Vs</t>
+  </si>
+  <si>
+    <t>AT_NWP_04</t>
+  </si>
+  <si>
+    <t>DS_AT_NWP_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mumbai </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vasai (SPOKE Maharashtra) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dhiraj Shinde </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BT Topup </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FI Agency </t>
   </si>
 </sst>
 </file>
@@ -459,7 +552,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -485,15 +578,15 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Admin@1"/>
+    <hyperlink ref="C2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -543,10 +636,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -554,9 +647,19 @@
     <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" customWidth="1"/>
     <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:19" ht="60">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -564,18 +667,131 @@
         <v>5</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="E1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
-        <v>15</v>
+      <c r="D2" t="e">
+        <f>-SME Tawrruq Auto Retails Loan Sub</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3">
+        <v>10000</v>
+      </c>
+      <c r="G3">
+        <v>10000</v>
+      </c>
+      <c r="H3">
+        <v>10000</v>
+      </c>
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R4">
+        <v>10000</v>
+      </c>
+      <c r="S4" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Gowtham_ULS_New/TestData/ijaraTestData.xlsx
+++ b/Gowtham_ULS_New/TestData/ijaraTestData.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
     <sheet name="IncomeDetailsList" sheetId="2" r:id="rId2"/>
     <sheet name="New_Application" sheetId="3" r:id="rId3"/>
+    <sheet name="Customer_Search" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="78">
   <si>
     <t>UserName</t>
   </si>
@@ -63,100 +64,193 @@
     <t>SelectOptionInSubProduct</t>
   </si>
   <si>
-    <t>0377</t>
+    <t>SubProductField</t>
+  </si>
+  <si>
+    <t>TotalFinanceAmountRequested</t>
+  </si>
+  <si>
+    <t>DeclaredNetMonthlyIncome</t>
+  </si>
+  <si>
+    <t>DeclaredCurrentObligations</t>
+  </si>
+  <si>
+    <t>Special Promotion/Campaign</t>
+  </si>
+  <si>
+    <t>SourcingChannel</t>
+  </si>
+  <si>
+    <t>BusinessCenterCode</t>
+  </si>
+  <si>
+    <t>ServicingType</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>ServicingBranch</t>
+  </si>
+  <si>
+    <t>SpokeLocation</t>
+  </si>
+  <si>
+    <t>ClosingStaffOrServicingStaffOrRM</t>
+  </si>
+  <si>
+    <t>TopupType</t>
+  </si>
+  <si>
+    <t>TopupApplicationNo</t>
+  </si>
+  <si>
+    <t>SourcingType</t>
+  </si>
+  <si>
+    <t>LPO Financing-LPO Financing</t>
+  </si>
+  <si>
+    <t>AT_NWP_03</t>
+  </si>
+  <si>
+    <t>DS_AT_NWP_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Honda Car Promotion scheme </t>
+  </si>
+  <si>
+    <t>DST</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Business Center-Retail Banking </t>
+  </si>
+  <si>
+    <t>Financier</t>
+  </si>
+  <si>
+    <t>Azentio Vs</t>
+  </si>
+  <si>
+    <t>AT_NWP_04</t>
+  </si>
+  <si>
+    <t>DS_AT_NWP_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BT Topup </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FI Agency </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMBA BANK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sachin Sudhakar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indore </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pithampur (SPOKE M.P) </t>
+  </si>
+  <si>
+    <t>AT_IJCS_01</t>
+  </si>
+  <si>
+    <t>DS_AT_IJCS_01</t>
+  </si>
+  <si>
+    <t>Customer Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Individual Customer </t>
+  </si>
+  <si>
+    <t>CIF ID</t>
+  </si>
+  <si>
+    <t>Check CIF ID</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>ID Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AADHAR CARD </t>
+  </si>
+  <si>
+    <t>Check ID Number</t>
+  </si>
+  <si>
+    <t>abcd123</t>
+  </si>
+  <si>
+    <t>AT_IJCS_02</t>
+  </si>
+  <si>
+    <t>DS_AT_IJCS_02</t>
+  </si>
+  <si>
+    <t>Customer Name</t>
+  </si>
+  <si>
+    <t>Gowtham</t>
+  </si>
+  <si>
+    <t>Check Mobile Number numeric</t>
+  </si>
+  <si>
+    <t>Check Mobile Number editable</t>
+  </si>
+  <si>
+    <t>Check Email ID alphanumeric</t>
+  </si>
+  <si>
+    <t>abcd123@gmail.com</t>
+  </si>
+  <si>
+    <t>Date Of Birth</t>
+  </si>
+  <si>
+    <t>27-Aug-2000</t>
+  </si>
+  <si>
+    <t>AT_IJCS_03</t>
+  </si>
+  <si>
+    <t>DS_AT_IJCS_03</t>
+  </si>
+  <si>
+    <t>AT_IJCS_04</t>
+  </si>
+  <si>
+    <t>DS_AT_IJCS_04</t>
+  </si>
+  <si>
+    <t>Customer ID</t>
+  </si>
+  <si>
+    <t>enter characters value in numeric field</t>
+  </si>
+  <si>
+    <t>special characters</t>
+  </si>
+  <si>
+    <t>@!</t>
+  </si>
+  <si>
+    <t>0343</t>
   </si>
   <si>
     <t>Admin@1</t>
   </si>
   <si>
-    <t>SubProductField</t>
-  </si>
-  <si>
-    <t>TotalFinanceAmountRequested</t>
-  </si>
-  <si>
-    <t>DeclaredNetMonthlyIncome</t>
-  </si>
-  <si>
-    <t>DeclaredCurrentObligations</t>
-  </si>
-  <si>
-    <t>Special Promotion/Campaign</t>
-  </si>
-  <si>
-    <t>SourcingChannel</t>
-  </si>
-  <si>
-    <t>BusinessCenterCode</t>
-  </si>
-  <si>
-    <t>ServicingType</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>ServicingBranch</t>
-  </si>
-  <si>
-    <t>SpokeLocation</t>
-  </si>
-  <si>
-    <t>ClosingStaffOrServicingStaffOrRM</t>
-  </si>
-  <si>
-    <t>TopupType</t>
-  </si>
-  <si>
-    <t>TopupApplicationNo</t>
-  </si>
-  <si>
-    <t>SourcingType</t>
-  </si>
-  <si>
-    <t>LPO Financing-LPO Financing</t>
-  </si>
-  <si>
-    <t>AT_NWP_03</t>
-  </si>
-  <si>
-    <t>DS_AT_NWP_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Honda Car Promotion scheme </t>
-  </si>
-  <si>
-    <t>DST</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Business Center-Retail Banking </t>
-  </si>
-  <si>
-    <t>Financier</t>
-  </si>
-  <si>
-    <t>Azentio Vs</t>
-  </si>
-  <si>
-    <t>AT_NWP_04</t>
-  </si>
-  <si>
-    <t>DS_AT_NWP_04</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mumbai </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Vasai (SPOKE Maharashtra) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dhiraj Shinde </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BT Topup </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> FI Agency </t>
+    <t>9123121233</t>
   </si>
 </sst>
 </file>
@@ -246,7 +340,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -254,6 +348,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="1"/>
@@ -552,7 +647,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -578,18 +673,15 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -638,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -656,10 +748,15 @@
     <col min="10" max="10" width="15.85546875" customWidth="1"/>
     <col min="11" max="11" width="21.140625" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" customWidth="1"/>
     <col min="14" max="14" width="12.7109375" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" customWidth="1"/>
+    <col min="19" max="19" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="60">
+    <row r="1" spans="1:19" ht="45">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -673,49 +770,49 @@
         <v>14</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -733,15 +830,15 @@
         <v>#NAME?</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F3">
         <v>10000</v>
@@ -753,48 +850,248 @@
         <v>10000</v>
       </c>
       <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" t="s">
         <v>35</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>36</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>37</v>
-      </c>
-      <c r="L3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q4" t="s">
         <v>40</v>
-      </c>
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" t="s">
-        <v>43</v>
-      </c>
-      <c r="P4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>45</v>
       </c>
       <c r="R4">
         <v>10000</v>
       </c>
       <c r="S4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="30.5703125" customWidth="1"/>
+    <col min="10" max="10" width="32.7109375" customWidth="1"/>
+    <col min="11" max="11" width="26.140625" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
+    <col min="14" max="14" width="28.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2">
+        <v>2022</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5">
+        <v>1234</v>
+      </c>
+      <c r="N5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="DS_@AT_IJCS_01"/>
+    <hyperlink ref="K3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Gowtham_ULS_New/TestData/ijaraTestData.xlsx
+++ b/Gowtham_ULS_New/TestData/ijaraTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="77">
   <si>
     <t>UserName</t>
   </si>
@@ -128,9 +128,6 @@
   </si>
   <si>
     <t>Financier</t>
-  </si>
-  <si>
-    <t>Azentio Vs</t>
   </si>
   <si>
     <t>AT_NWP_04</t>
@@ -673,10 +670,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -730,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -862,36 +859,36 @@
         <v>36</v>
       </c>
       <c r="M3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
         <v>38</v>
       </c>
-      <c r="B4" t="s">
+      <c r="M4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" t="s">
         <v>39</v>
-      </c>
-      <c r="M4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P4" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>40</v>
       </c>
       <c r="R4">
         <v>10000</v>
       </c>
       <c r="S4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -904,7 +901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
@@ -934,95 +931,95 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" t="s">
-        <v>51</v>
-      </c>
       <c r="F1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" t="s">
         <v>61</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>62</v>
       </c>
-      <c r="K1" t="s">
-        <v>63</v>
-      </c>
       <c r="L1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" t="s">
         <v>71</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>72</v>
-      </c>
-      <c r="O1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
         <v>46</v>
       </c>
-      <c r="B2" t="s">
-        <v>47</v>
-      </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2">
         <v>2022</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
         <v>57</v>
       </c>
-      <c r="B3" t="s">
-        <v>58</v>
-      </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M3">
         <v>1234</v>
@@ -1030,25 +1027,25 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
         <v>67</v>
       </c>
-      <c r="B4" t="s">
-        <v>68</v>
-      </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M4">
         <v>1234</v>
@@ -1056,34 +1053,34 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" t="s">
         <v>69</v>
       </c>
-      <c r="B5" t="s">
-        <v>70</v>
-      </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M5">
         <v>1234</v>
       </c>
       <c r="N5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/Gowtham_ULS_New/TestData/ijaraTestData.xlsx
+++ b/Gowtham_ULS_New/TestData/ijaraTestData.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
     <sheet name="IncomeDetailsList" sheetId="2" r:id="rId2"/>
     <sheet name="New_Application" sheetId="3" r:id="rId3"/>
     <sheet name="Customer_Search" sheetId="4" r:id="rId4"/>
+    <sheet name="Living_Expense" sheetId="5" r:id="rId5"/>
+    <sheet name="IjaraAppDataCheckQuationInfo" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="100">
   <si>
     <t>UserName</t>
   </si>
@@ -58,9 +60,6 @@
     <t>SelectOptionInProduct</t>
   </si>
   <si>
-    <t>LPO Financing</t>
-  </si>
-  <si>
     <t>SelectOptionInSubProduct</t>
   </si>
   <si>
@@ -109,9 +108,6 @@
     <t>SourcingType</t>
   </si>
   <si>
-    <t>LPO Financing-LPO Financing</t>
-  </si>
-  <si>
     <t>AT_NWP_03</t>
   </si>
   <si>
@@ -241,13 +237,88 @@
     <t>@!</t>
   </si>
   <si>
-    <t>0343</t>
-  </si>
-  <si>
     <t>Admin@1</t>
   </si>
   <si>
     <t>9123121233</t>
+  </si>
+  <si>
+    <t>ClientName</t>
+  </si>
+  <si>
+    <t>clientNameselect</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>ExpenseType</t>
+  </si>
+  <si>
+    <t>NeagtiveAmount</t>
+  </si>
+  <si>
+    <t>specialCharAmount</t>
+  </si>
+  <si>
+    <t>stringAmount</t>
+  </si>
+  <si>
+    <t>ExpectedCostOfLiving</t>
+  </si>
+  <si>
+    <t>MinimumCostOfLiving</t>
+  </si>
+  <si>
+    <t>AT_LEA_001</t>
+  </si>
+  <si>
+    <t>AT_LEA_001_D1</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>Asset</t>
+  </si>
+  <si>
+    <t>!@#$%</t>
+  </si>
+  <si>
+    <t>AT_IJ_QA_01</t>
+  </si>
+  <si>
+    <t>DS_AT_IJ_QA_01</t>
+  </si>
+  <si>
+    <t>Search Record</t>
+  </si>
+  <si>
+    <t>AT_IJ_QA_02</t>
+  </si>
+  <si>
+    <t>DS_AT_IJ_QA_02</t>
+  </si>
+  <si>
+    <t>AT_IJ_QA_03</t>
+  </si>
+  <si>
+    <t>DS_AT_IJ_QA_03</t>
+  </si>
+  <si>
+    <t>AT_IJ_QA_04</t>
+  </si>
+  <si>
+    <t>DS_AT_IJ_QA_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ijara Auto Retail Loan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ijara Auto Retail Loan-Ijara Auto Retails Loan Sub </t>
+  </si>
+  <si>
+    <t>3032</t>
   </si>
 </sst>
 </file>
@@ -643,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -670,10 +741,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -727,8 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -737,7 +808,7 @@
     <col min="2" max="2" width="22.42578125" customWidth="1"/>
     <col min="3" max="3" width="26.140625" customWidth="1"/>
     <col min="4" max="4" width="40.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="40.140625" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
     <col min="8" max="8" width="16.85546875" customWidth="1"/>
@@ -764,52 +835,52 @@
         <v>12</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -820,22 +891,22 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="D2" t="e">
         <f>-SME Tawrruq Auto Retails Loan Sub</f>
         <v>#NAME?</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F3">
         <v>10000</v>
@@ -847,48 +918,48 @@
         <v>10000</v>
       </c>
       <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
         <v>33</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>34</v>
       </c>
-      <c r="K3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" t="s">
-        <v>36</v>
-      </c>
       <c r="M3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q4" t="s">
         <v>37</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O4" t="s">
-        <v>44</v>
-      </c>
-      <c r="P4" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>39</v>
       </c>
       <c r="R4">
         <v>10000</v>
       </c>
       <c r="S4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -899,10 +970,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -923,164 +994,166 @@
     <col min="14" max="14" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17" ht="45">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="J1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="L1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="M1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="N1" t="s">
-        <v>71</v>
-      </c>
-      <c r="O1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
         <v>46</v>
-      </c>
-      <c r="C2" t="s">
-        <v>48</v>
       </c>
       <c r="D2">
         <v>2022</v>
       </c>
       <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" t="s">
         <v>51</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>53</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" t="s">
         <v>57</v>
       </c>
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" t="s">
-        <v>59</v>
-      </c>
       <c r="I3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="M3">
         <v>1234</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" t="s">
         <v>53</v>
       </c>
-      <c r="G4" t="s">
-        <v>55</v>
-      </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M4">
         <v>1234</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" t="s">
         <v>53</v>
       </c>
-      <c r="G5" t="s">
-        <v>55</v>
-      </c>
       <c r="H5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M5">
         <v>1234</v>
       </c>
       <c r="N5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1091,4 +1164,178 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="7" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="30">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="1">
+        <v>100</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="1">
+        <v>-100</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3620</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Gowtham_ULS_New/TestData/ijaraTestData.xlsx
+++ b/Gowtham_ULS_New/TestData/ijaraTestData.xlsx
@@ -13,13 +13,15 @@
     <sheet name="Customer_Search" sheetId="4" r:id="rId4"/>
     <sheet name="Living_Expense" sheetId="5" r:id="rId5"/>
     <sheet name="IjaraAppDataCheckQuationInfo" sheetId="6" r:id="rId6"/>
+    <sheet name="MurabhAppdataEntryInsuranceInfo" sheetId="7" r:id="rId7"/>
+    <sheet name="MurabhAppdataEntryQuotationInfo" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="134">
   <si>
     <t>UserName</t>
   </si>
@@ -318,7 +320,109 @@
     <t xml:space="preserve">Ijara Auto Retail Loan-Ijara Auto Retails Loan Sub </t>
   </si>
   <si>
-    <t>3032</t>
+    <t>karthikeyan</t>
+  </si>
+  <si>
+    <t>First Year</t>
+  </si>
+  <si>
+    <t>insuranceQuotationId</t>
+  </si>
+  <si>
+    <t>insuranceYear</t>
+  </si>
+  <si>
+    <t>depriciation</t>
+  </si>
+  <si>
+    <t>AssetPrice</t>
+  </si>
+  <si>
+    <t>RatePerAsset</t>
+  </si>
+  <si>
+    <t>minimumInsurancePremium</t>
+  </si>
+  <si>
+    <t>BaseInsurancePremium</t>
+  </si>
+  <si>
+    <t>VATPremium</t>
+  </si>
+  <si>
+    <t>NetPremium</t>
+  </si>
+  <si>
+    <t>AT_MU_INS_01</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_INS_01</t>
+  </si>
+  <si>
+    <t>0172</t>
+  </si>
+  <si>
+    <t>TestCase ID</t>
+  </si>
+  <si>
+    <t>Reference Id</t>
+  </si>
+  <si>
+    <t>InsuranceCompanyInput</t>
+  </si>
+  <si>
+    <t>Base_Premium_Input</t>
+  </si>
+  <si>
+    <t>Vat_On_Base_Premium</t>
+  </si>
+  <si>
+    <t>Net_Base_Premium</t>
+  </si>
+  <si>
+    <t>Total_Discount</t>
+  </si>
+  <si>
+    <t>Quotation_Ref_No</t>
+  </si>
+  <si>
+    <t>Quotation_Ref_No1</t>
+  </si>
+  <si>
+    <t>Arab National Bank</t>
+  </si>
+  <si>
+    <t>quotation</t>
+  </si>
+  <si>
+    <t>ref@id</t>
+  </si>
+  <si>
+    <t>AT_MU_QIA_001</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_QIA_001</t>
+  </si>
+  <si>
+    <t>AT_MU_QIA_002</t>
+  </si>
+  <si>
+    <t>AT_MU_QIA_003</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_QIA_002</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_QIA_003</t>
+  </si>
+  <si>
+    <t>userType02</t>
+  </si>
+  <si>
+    <t>0323</t>
+  </si>
+  <si>
+    <t>MurabhaAppDataEntry</t>
   </si>
 </sst>
 </file>
@@ -712,10 +816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -723,9 +827,10 @@
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="61.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -736,15 +841,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1269,7 +1388,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1338,4 +1457,241 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="21" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" customWidth="1"/>
+    <col min="12" max="12" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="30">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="1">
+        <v>450</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="1">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="3" width="34" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2">
+        <v>2974</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3">
+        <v>2974</v>
+      </c>
+      <c r="E3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3">
+        <v>4000</v>
+      </c>
+      <c r="G3">
+        <v>5000</v>
+      </c>
+      <c r="H3">
+        <v>4000</v>
+      </c>
+      <c r="I3">
+        <v>6000</v>
+      </c>
+      <c r="J3">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4">
+        <v>2974</v>
+      </c>
+      <c r="G4">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Gowtham_ULS_New/TestData/ijaraTestData.xlsx
+++ b/Gowtham_ULS_New/TestData/ijaraTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="IjaraAppDataCheckQuationInfo" sheetId="6" r:id="rId6"/>
     <sheet name="MurabhAppdataEntryInsuranceInfo" sheetId="7" r:id="rId7"/>
     <sheet name="MurabhAppdataEntryQuotationInfo" sheetId="8" r:id="rId8"/>
+    <sheet name="TawaAppDataEntryIncomeDetails" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="186">
   <si>
     <t>UserName</t>
   </si>
@@ -423,13 +424,169 @@
   </si>
   <si>
     <t>MurabhaAppDataEntry</t>
+  </si>
+  <si>
+    <t>Ref No</t>
+  </si>
+  <si>
+    <t>Lumpsum Amount</t>
+  </si>
+  <si>
+    <t>Pension Amount</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Invalid Data</t>
+  </si>
+  <si>
+    <t>Adjusted %</t>
+  </si>
+  <si>
+    <t>Salary Credited To Bank</t>
+  </si>
+  <si>
+    <t>Bank Name</t>
+  </si>
+  <si>
+    <t>Branch Name</t>
+  </si>
+  <si>
+    <t>Deduction</t>
+  </si>
+  <si>
+    <t>Deduction_Frequency</t>
+  </si>
+  <si>
+    <t>Deduction_Amt</t>
+  </si>
+  <si>
+    <t>Deduction_Adj%</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Mismatched Currency</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>CASH RENTAL INCOME</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>HDFC BANK</t>
+  </si>
+  <si>
+    <t>VASHI</t>
+  </si>
+  <si>
+    <t>PROVIDEND FUND</t>
+  </si>
+  <si>
+    <t>CAD</t>
+  </si>
+  <si>
+    <t>Commission Income</t>
+  </si>
+  <si>
+    <t>Yearly</t>
+  </si>
+  <si>
+    <t>ICICIBANK</t>
+  </si>
+  <si>
+    <t>JAIPUR BRANCH</t>
+  </si>
+  <si>
+    <t>INCOME TAX</t>
+  </si>
+  <si>
+    <t>Half Yearly</t>
+  </si>
+  <si>
+    <t>Rental Income In Bank</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>SAR</t>
+  </si>
+  <si>
+    <t>0288</t>
+  </si>
+  <si>
+    <t>userType03</t>
+  </si>
+  <si>
+    <t>TawaruAppDataEntry</t>
+  </si>
+  <si>
+    <t>AT_TW_AD_INC_01</t>
+  </si>
+  <si>
+    <t>AT_TW_AD_INC_02</t>
+  </si>
+  <si>
+    <t>AT_TW_AD_INC_03</t>
+  </si>
+  <si>
+    <t>AT_TW_AD_INC_04</t>
+  </si>
+  <si>
+    <t>AT_TW_AD_INC_05</t>
+  </si>
+  <si>
+    <t>AT_TW_AD_INC_06</t>
+  </si>
+  <si>
+    <t>AT_TW_AD_INC_07</t>
+  </si>
+  <si>
+    <t>AT_TW_AD_INC_08</t>
+  </si>
+  <si>
+    <t>DS_AT_TW_AD_INC_01</t>
+  </si>
+  <si>
+    <t>DS_AT_TW_AD_INC_02</t>
+  </si>
+  <si>
+    <t>DS_AT_TW_AD_INC_03</t>
+  </si>
+  <si>
+    <t>DS_AT_TW_AD_INC_04</t>
+  </si>
+  <si>
+    <t>DS_AT_TW_AD_INC_05</t>
+  </si>
+  <si>
+    <t>DS_AT_TW_AD_INC_06</t>
+  </si>
+  <si>
+    <t>DS_AT_TW_AD_INC_07</t>
+  </si>
+  <si>
+    <t>DS_AT_TW_AD_INC_08</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,8 +607,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -470,8 +634,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -507,12 +677,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -521,6 +702,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="1"/>
@@ -816,10 +998,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -864,6 +1046,20 @@
       </c>
       <c r="D3" t="s">
         <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -1388,7 +1584,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1570,7 +1766,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1694,4 +1890,298 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" customWidth="1"/>
+    <col min="18" max="18" width="16.140625" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K1" t="s">
+        <v>141</v>
+      </c>
+      <c r="L1" t="s">
+        <v>142</v>
+      </c>
+      <c r="M1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O1" t="s">
+        <v>145</v>
+      </c>
+      <c r="P1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>147</v>
+      </c>
+      <c r="R1" t="s">
+        <v>148</v>
+      </c>
+      <c r="S1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2">
+        <v>3393</v>
+      </c>
+      <c r="K2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3">
+        <v>3393</v>
+      </c>
+      <c r="D3">
+        <v>1450000</v>
+      </c>
+      <c r="E3">
+        <v>13000</v>
+      </c>
+      <c r="F3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H3">
+        <v>85000</v>
+      </c>
+      <c r="J3">
+        <v>100</v>
+      </c>
+      <c r="K3" t="s">
+        <v>150</v>
+      </c>
+      <c r="L3" t="s">
+        <v>153</v>
+      </c>
+      <c r="M3" t="s">
+        <v>154</v>
+      </c>
+      <c r="N3" t="s">
+        <v>155</v>
+      </c>
+      <c r="O3" t="s">
+        <v>152</v>
+      </c>
+      <c r="P3">
+        <v>1500</v>
+      </c>
+      <c r="Q3">
+        <v>100</v>
+      </c>
+      <c r="R3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4">
+        <v>3393</v>
+      </c>
+      <c r="F4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G4" t="s">
+        <v>158</v>
+      </c>
+      <c r="H4">
+        <v>58000</v>
+      </c>
+      <c r="J4">
+        <v>100</v>
+      </c>
+      <c r="L4" t="s">
+        <v>159</v>
+      </c>
+      <c r="M4" t="s">
+        <v>160</v>
+      </c>
+      <c r="N4" t="s">
+        <v>161</v>
+      </c>
+      <c r="O4" t="s">
+        <v>162</v>
+      </c>
+      <c r="P4">
+        <v>750</v>
+      </c>
+      <c r="Q4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5">
+        <v>3393</v>
+      </c>
+      <c r="D5">
+        <v>1150500</v>
+      </c>
+      <c r="E5">
+        <v>18500</v>
+      </c>
+      <c r="F5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6">
+        <v>3393</v>
+      </c>
+      <c r="D6">
+        <v>880000</v>
+      </c>
+      <c r="E6">
+        <v>8950</v>
+      </c>
+      <c r="F6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H6">
+        <v>22000</v>
+      </c>
+      <c r="I6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8">
+        <v>3393</v>
+      </c>
+      <c r="R8" t="s">
+        <v>165</v>
+      </c>
+      <c r="S8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9">
+        <v>3393</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Gowtham_ULS_New/TestData/ijaraTestData.xlsx
+++ b/Gowtham_ULS_New/TestData/ijaraTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="MurabhAppdataEntryInsuranceInfo" sheetId="7" r:id="rId7"/>
     <sheet name="MurabhAppdataEntryQuotationInfo" sheetId="8" r:id="rId8"/>
     <sheet name="TawaAppDataEntryIncomeDetails" sheetId="10" r:id="rId9"/>
+    <sheet name="TWAppDataEntryFacilityDetails" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="217">
   <si>
     <t>UserName</t>
   </si>
@@ -580,6 +581,99 @@
   </si>
   <si>
     <t>DS_AT_TW_AD_INC_08</t>
+  </si>
+  <si>
+    <t>Classification</t>
+  </si>
+  <si>
+    <t>Record</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Scheme</t>
+  </si>
+  <si>
+    <t>ProgrameCode</t>
+  </si>
+  <si>
+    <t>FacilityType</t>
+  </si>
+  <si>
+    <t>PricingIndicator</t>
+  </si>
+  <si>
+    <t>RequestedAmount</t>
+  </si>
+  <si>
+    <t>DeclaredPropertyValue</t>
+  </si>
+  <si>
+    <t>DeclaredDownPaymentAmount</t>
+  </si>
+  <si>
+    <t>LoanTenure</t>
+  </si>
+  <si>
+    <t>ClassificationModification</t>
+  </si>
+  <si>
+    <t>MisMatchRecord</t>
+  </si>
+  <si>
+    <t>PDF</t>
+  </si>
+  <si>
+    <t>XLS</t>
+  </si>
+  <si>
+    <t>AT_FI_001</t>
+  </si>
+  <si>
+    <t>DS01_AT_FI_001</t>
+  </si>
+  <si>
+    <t>AT_FI_005</t>
+  </si>
+  <si>
+    <t>DS01_AT_FI_005</t>
+  </si>
+  <si>
+    <t>Home Loan</t>
+  </si>
+  <si>
+    <t>AHL</t>
+  </si>
+  <si>
+    <t>Home Loan-Ready to move / Under construction Property from Builder/Society</t>
+  </si>
+  <si>
+    <t>Ready to move / Under construction Property from Builder/Society</t>
+  </si>
+  <si>
+    <t>Income Based</t>
+  </si>
+  <si>
+    <t>Auto Leasing Loan</t>
+  </si>
+  <si>
+    <t>Ijara auto retail 3</t>
+  </si>
+  <si>
+    <t>Non Housing Loan</t>
+  </si>
+  <si>
+    <t>AT_FI_012</t>
+  </si>
+  <si>
+    <t>DS01_AT_FI_012</t>
+  </si>
+  <si>
+    <t>AT_FI_013</t>
+  </si>
+  <si>
+    <t>DS01_AT_FI_013</t>
   </si>
 </sst>
 </file>
@@ -1068,6 +1162,192 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K1" t="s">
+        <v>193</v>
+      </c>
+      <c r="L1" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1" t="s">
+        <v>195</v>
+      </c>
+      <c r="N1" t="s">
+        <v>148</v>
+      </c>
+      <c r="O1" t="s">
+        <v>196</v>
+      </c>
+      <c r="P1" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>198</v>
+      </c>
+      <c r="R1" t="s">
+        <v>199</v>
+      </c>
+      <c r="S1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3">
+        <v>3016</v>
+      </c>
+      <c r="D3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G3" t="s">
+        <v>208</v>
+      </c>
+      <c r="H3" t="s">
+        <v>209</v>
+      </c>
+      <c r="I3" t="s">
+        <v>210</v>
+      </c>
+      <c r="J3" t="s">
+        <v>211</v>
+      </c>
+      <c r="K3">
+        <v>1000000</v>
+      </c>
+      <c r="L3">
+        <v>20000000</v>
+      </c>
+      <c r="M3">
+        <v>60000</v>
+      </c>
+      <c r="N3" t="s">
+        <v>165</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4">
+        <v>3016</v>
+      </c>
+      <c r="E4" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5">
+        <v>3016</v>
+      </c>
+      <c r="R5" t="s">
+        <v>199</v>
+      </c>
+      <c r="S5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
@@ -1896,8 +2176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Gowtham_ULS_New/TestData/ijaraTestData.xlsx
+++ b/Gowtham_ULS_New/TestData/ijaraTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" firstSheet="6" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="MurabhAppdataEntryQuotationInfo" sheetId="8" r:id="rId8"/>
     <sheet name="TawaAppDataEntryIncomeDetails" sheetId="10" r:id="rId9"/>
     <sheet name="TWAppDataEntryFacilityDetails" sheetId="11" r:id="rId10"/>
+    <sheet name="IjaraAppDataEntryCFIncome" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="237">
   <si>
     <t>UserName</t>
   </si>
@@ -674,13 +675,73 @@
   </si>
   <si>
     <t>DS01_AT_FI_013</t>
+  </si>
+  <si>
+    <t>AT_INC_02_001</t>
+  </si>
+  <si>
+    <t>AT_INC_02_002</t>
+  </si>
+  <si>
+    <t>AT_INC_02_003</t>
+  </si>
+  <si>
+    <t>AT_INC_02_004</t>
+  </si>
+  <si>
+    <t>AT_INC_02_005</t>
+  </si>
+  <si>
+    <t>AT_INC_02_006</t>
+  </si>
+  <si>
+    <t>AT_INC_02_007</t>
+  </si>
+  <si>
+    <t>AT_INC_02_008</t>
+  </si>
+  <si>
+    <t>DS_AT_INC_02_001</t>
+  </si>
+  <si>
+    <t>DS_AT_INC_02_002</t>
+  </si>
+  <si>
+    <t>DS_AT_INC_02_003</t>
+  </si>
+  <si>
+    <t>DS_AT_INC_02_004</t>
+  </si>
+  <si>
+    <t>DS_AT_INC_02_005</t>
+  </si>
+  <si>
+    <t>DS_AT_INC_02_006</t>
+  </si>
+  <si>
+    <t>DS_AT_INC_02_007</t>
+  </si>
+  <si>
+    <t>DS_AT_INC_02_008</t>
+  </si>
+  <si>
+    <t>userType04</t>
+  </si>
+  <si>
+    <t>in02040</t>
+  </si>
+  <si>
+    <t>IjaraAppDataEntry</t>
+  </si>
+  <si>
+    <t>admin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -708,8 +769,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -734,8 +801,26 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -782,12 +867,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -797,6 +910,19 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="1"/>
@@ -1092,10 +1218,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1156,9 +1282,26 @@
         <v>169</v>
       </c>
     </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" t="s">
+        <v>235</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" display="Admin@1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1166,8 +1309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1342,6 +1485,375 @@
       <c r="S5" t="s">
         <v>200</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="39.75" thickBot="1">
+      <c r="A1" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A2" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="9">
+        <v>3393</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+    </row>
+    <row r="3" spans="1:19" ht="39.75" thickBot="1">
+      <c r="A3" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" s="9">
+        <v>3393</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1450000</v>
+      </c>
+      <c r="E3" s="9">
+        <v>13000</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="H3" s="9">
+        <v>85000</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9">
+        <v>100</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="P3" s="9">
+        <v>1500</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>100</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="S3" s="9"/>
+    </row>
+    <row r="4" spans="1:19" ht="27" thickBot="1">
+      <c r="A4" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C4" s="9">
+        <v>3393</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="H4" s="9">
+        <v>58000</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9">
+        <v>100</v>
+      </c>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="P4" s="9">
+        <v>750</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>100</v>
+      </c>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+    </row>
+    <row r="5" spans="1:19" ht="39.75" thickBot="1">
+      <c r="A5" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C5" s="9">
+        <v>3393</v>
+      </c>
+      <c r="D5" s="9">
+        <v>1150500</v>
+      </c>
+      <c r="E5" s="9">
+        <v>18500</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+    </row>
+    <row r="6" spans="1:19" ht="39.75" thickBot="1">
+      <c r="A6" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C6" s="9">
+        <v>3393</v>
+      </c>
+      <c r="D6" s="9">
+        <v>880000</v>
+      </c>
+      <c r="E6" s="9">
+        <v>8950</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="H6" s="9">
+        <v>22000</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A7" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C7" s="9">
+        <v>3393</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A8" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C8" s="9">
+        <v>3393</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A9" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C9" s="9">
+        <v>3393</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Gowtham_ULS_New/TestData/ijaraTestData.xlsx
+++ b/Gowtham_ULS_New/TestData/ijaraTestData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600"/>
@@ -19,12 +19,12 @@
     <sheet name="TWAppDataEntryFacilityDetails" sheetId="11" r:id="rId10"/>
     <sheet name="IjaraAppDataEntryCFIncome" sheetId="12" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="243">
   <si>
     <t>UserName</t>
   </si>
@@ -735,6 +735,24 @@
   </si>
   <si>
     <t>admin</t>
+  </si>
+  <si>
+    <t>userType05</t>
+  </si>
+  <si>
+    <t>TawaruOffering - document details</t>
+  </si>
+  <si>
+    <t>3129</t>
+  </si>
+  <si>
+    <t>userType06</t>
+  </si>
+  <si>
+    <t>0378</t>
+  </si>
+  <si>
+    <t>Murabha Offering - OfferDetails</t>
   </si>
 </sst>
 </file>
@@ -1218,10 +1236,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1294,6 +1312,34 @@
       </c>
       <c r="D5" t="s">
         <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/Gowtham_ULS_New/TestData/ijaraTestData.xlsx
+++ b/Gowtham_ULS_New/TestData/ijaraTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" firstSheet="8" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="TawaAppDataEntryIncomeDetails" sheetId="10" r:id="rId9"/>
     <sheet name="TWAppDataEntryFacilityDetails" sheetId="11" r:id="rId10"/>
     <sheet name="IjaraAppDataEntryCFIncome" sheetId="12" r:id="rId11"/>
+    <sheet name="ALoanAppdataEntryContactDetails" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="275">
   <si>
     <t>UserName</t>
   </si>
@@ -734,9 +735,6 @@
     <t>IjaraAppDataEntry</t>
   </si>
   <si>
-    <t>admin</t>
-  </si>
-  <si>
     <t>userType05</t>
   </si>
   <si>
@@ -753,6 +751,105 @@
   </si>
   <si>
     <t>Murabha Offering - OfferDetails</t>
+  </si>
+  <si>
+    <t>record_reference_number</t>
+  </si>
+  <si>
+    <t>phone type</t>
+  </si>
+  <si>
+    <t>phone number</t>
+  </si>
+  <si>
+    <t>consent for phone contact</t>
+  </si>
+  <si>
+    <t>prefered phone contact type</t>
+  </si>
+  <si>
+    <t>prefered time for contact</t>
+  </si>
+  <si>
+    <t>email type</t>
+  </si>
+  <si>
+    <t>email id</t>
+  </si>
+  <si>
+    <t>character input</t>
+  </si>
+  <si>
+    <t>invalid  mail id</t>
+  </si>
+  <si>
+    <t>invalid mobile number</t>
+  </si>
+  <si>
+    <t>special character input</t>
+  </si>
+  <si>
+    <t>Mobile 1</t>
+  </si>
+  <si>
+    <t>Personal Email</t>
+  </si>
+  <si>
+    <t>test002@gmail.com</t>
+  </si>
+  <si>
+    <t>abcdefhijk</t>
+  </si>
+  <si>
+    <t>123abc</t>
+  </si>
+  <si>
+    <t>!@#$!@#$%^</t>
+  </si>
+  <si>
+    <t>v0169</t>
+  </si>
+  <si>
+    <t>AutoLoanAppdataEntryContactDetails</t>
+  </si>
+  <si>
+    <t>userType07</t>
+  </si>
+  <si>
+    <t>AT_AL_APD_CD_01</t>
+  </si>
+  <si>
+    <t>DS_AT_AL_APD_CD_01</t>
+  </si>
+  <si>
+    <t>AT_AL_APD_CD_02</t>
+  </si>
+  <si>
+    <t>AT_AL_APD_CD_03</t>
+  </si>
+  <si>
+    <t>AT_AL_APD_CD_04</t>
+  </si>
+  <si>
+    <t>AT_AL_APD_CD_05</t>
+  </si>
+  <si>
+    <t>DS_AT_AL_APD_CD_02</t>
+  </si>
+  <si>
+    <t>DS_AT_AL_APD_CD_03</t>
+  </si>
+  <si>
+    <t>DS_AT_AL_APD_CD_04</t>
+  </si>
+  <si>
+    <t>DS_AT_AL_APD_CD_05</t>
+  </si>
+  <si>
+    <t>9632145875</t>
+  </si>
+  <si>
+    <t>9874563211</t>
   </si>
 </sst>
 </file>
@@ -794,7 +891,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -834,6 +931,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -918,7 +1021,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -941,6 +1044,10 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="1"/>
@@ -1236,10 +1343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1307,8 +1414,8 @@
       <c r="B5" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>236</v>
+      <c r="C5" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="D5" t="s">
         <v>235</v>
@@ -1316,38 +1423,49 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>240</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>241</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>242</v>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" display="Admin@1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1542,7 +1660,7 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1903,6 +2021,198 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" customWidth="1"/>
+    <col min="13" max="13" width="22.42578125" customWidth="1"/>
+    <col min="14" max="14" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C2">
+        <v>2971</v>
+      </c>
+      <c r="D2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="F2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H2" s="12">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="I2" t="s">
+        <v>255</v>
+      </c>
+      <c r="J2" t="s">
+        <v>256</v>
+      </c>
+      <c r="K2" t="s">
+        <v>257</v>
+      </c>
+      <c r="L2" t="s">
+        <v>258</v>
+      </c>
+      <c r="M2">
+        <v>-987456321</v>
+      </c>
+      <c r="N2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="B3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C3">
+        <v>2971</v>
+      </c>
+      <c r="K3" t="s">
+        <v>257</v>
+      </c>
+      <c r="L3" t="s">
+        <v>258</v>
+      </c>
+      <c r="M3">
+        <v>-9875632</v>
+      </c>
+      <c r="N3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="B4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C4">
+        <v>2971</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="B5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C5">
+        <v>2971</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="B6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C6">
+        <v>2971</v>
+      </c>
+      <c r="K6" t="s">
+        <v>257</v>
+      </c>
+      <c r="L6" t="s">
+        <v>258</v>
+      </c>
+      <c r="M6">
+        <f>M3-987456321</f>
+        <v>-997331953</v>
+      </c>
+      <c r="N6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Gowtham_ULS_New/TestData/ijaraTestData.xlsx
+++ b/Gowtham_ULS_New/TestData/ijaraTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" firstSheet="8" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="275">
   <si>
     <t>UserName</t>
   </si>
@@ -150,9 +150,6 @@
     <t xml:space="preserve">Sachin Sudhakar </t>
   </si>
   <si>
-    <t xml:space="preserve">Indore </t>
-  </si>
-  <si>
     <t xml:space="preserve">Pithampur (SPOKE M.P) </t>
   </si>
   <si>
@@ -318,12 +315,6 @@
     <t>DS_AT_IJ_QA_04</t>
   </si>
   <si>
-    <t xml:space="preserve">Ijara Auto Retail Loan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ijara Auto Retail Loan-Ijara Auto Retails Loan Sub </t>
-  </si>
-  <si>
     <t>karthikeyan</t>
   </si>
   <si>
@@ -850,6 +841,15 @@
   </si>
   <si>
     <t>9874563211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ijarah Auto Loan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ijarah Auto Loan-Retail </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mumbai </t>
   </si>
 </sst>
 </file>
@@ -1373,94 +1373,94 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -1498,69 +1498,69 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1" t="s">
         <v>186</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>187</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>188</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>189</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>190</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>191</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>192</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
+        <v>145</v>
+      </c>
+      <c r="O1" t="s">
         <v>193</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>194</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>195</v>
       </c>
-      <c r="N1" t="s">
-        <v>148</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>196</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>197</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>198</v>
-      </c>
-      <c r="R1" t="s">
-        <v>199</v>
-      </c>
-      <c r="S1" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C2">
         <v>3016</v>
@@ -1568,34 +1568,34 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C3">
         <v>3016</v>
       </c>
       <c r="D3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G3" t="s">
         <v>205</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>206</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>207</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>208</v>
-      </c>
-      <c r="H3" t="s">
-        <v>209</v>
-      </c>
-      <c r="I3" t="s">
-        <v>210</v>
-      </c>
-      <c r="J3" t="s">
-        <v>211</v>
       </c>
       <c r="K3">
         <v>1000000</v>
@@ -1607,47 +1607,47 @@
         <v>60000</v>
       </c>
       <c r="N3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="O3">
         <v>2</v>
       </c>
       <c r="P3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C4">
         <v>3016</v>
       </c>
       <c r="E4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="Q4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C5">
         <v>3016</v>
       </c>
       <c r="R5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="S5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -1672,69 +1672,69 @@
   <sheetData>
     <row r="1" spans="1:19" ht="39.75" thickBot="1">
       <c r="A1" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="H1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="I1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1">
       <c r="A2" s="8" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C2" s="9">
         <v>3393</v>
@@ -1747,7 +1747,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
@@ -1760,10 +1760,10 @@
     </row>
     <row r="3" spans="1:19" ht="39.75" thickBot="1">
       <c r="A3" s="8" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C3" s="9">
         <v>3393</v>
@@ -1775,10 +1775,10 @@
         <v>13000</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H3" s="9">
         <v>85000</v>
@@ -1788,19 +1788,19 @@
         <v>100</v>
       </c>
       <c r="K3" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="L3" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="L3" s="9" t="s">
-        <v>153</v>
-      </c>
       <c r="M3" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P3" s="9">
         <v>1500</v>
@@ -1809,16 +1809,16 @@
         <v>100</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="S3" s="9"/>
     </row>
     <row r="4" spans="1:19" ht="27" thickBot="1">
       <c r="A4" s="8" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C4" s="9">
         <v>3393</v>
@@ -1826,10 +1826,10 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H4" s="9">
         <v>58000</v>
@@ -1840,16 +1840,16 @@
       </c>
       <c r="K4" s="9"/>
       <c r="L4" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="O4" s="9" t="s">
         <v>159</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>162</v>
       </c>
       <c r="P4" s="9">
         <v>750</v>
@@ -1862,10 +1862,10 @@
     </row>
     <row r="5" spans="1:19" ht="39.75" thickBot="1">
       <c r="A5" s="8" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C5" s="9">
         <v>3393</v>
@@ -1877,10 +1877,10 @@
         <v>18500</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
@@ -1897,10 +1897,10 @@
     </row>
     <row r="6" spans="1:19" ht="39.75" thickBot="1">
       <c r="A6" s="8" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C6" s="9">
         <v>3393</v>
@@ -1912,16 +1912,16 @@
         <v>8950</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H6" s="9">
         <v>22000</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="7" spans="1:19" ht="15.75" thickBot="1">
       <c r="A7" s="8" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C7" s="9">
         <v>3393</v>
@@ -1963,10 +1963,10 @@
     </row>
     <row r="8" spans="1:19" ht="15.75" thickBot="1">
       <c r="A8" s="8" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C8" s="9">
         <v>3393</v>
@@ -1986,18 +1986,18 @@
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
       <c r="R8" s="9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="15.75" thickBot="1">
       <c r="A9" s="8" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C9" s="9">
         <v>3393</v>
@@ -2028,7 +2028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -2052,135 +2052,135 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>250</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="14" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C2">
         <v>2971</v>
       </c>
       <c r="D2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H2" s="12">
         <v>0.4236111111111111</v>
       </c>
       <c r="I2" t="s">
+        <v>252</v>
+      </c>
+      <c r="J2" t="s">
+        <v>253</v>
+      </c>
+      <c r="K2" t="s">
+        <v>254</v>
+      </c>
+      <c r="L2" t="s">
         <v>255</v>
-      </c>
-      <c r="J2" t="s">
-        <v>256</v>
-      </c>
-      <c r="K2" t="s">
-        <v>257</v>
-      </c>
-      <c r="L2" t="s">
-        <v>258</v>
       </c>
       <c r="M2">
         <v>-987456321</v>
       </c>
       <c r="N2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="14" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C3">
         <v>2971</v>
       </c>
       <c r="K3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M3">
         <v>-9875632</v>
       </c>
       <c r="N3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="14" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C4">
         <v>2971</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="14" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C5">
         <v>2971</v>
@@ -2188,26 +2188,26 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="14" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C6">
         <v>2971</v>
       </c>
       <c r="K6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M6">
         <f>M3-987456321</f>
         <v>-997331953</v>
       </c>
       <c r="N6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -2221,7 +2221,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2261,8 +2261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2271,7 +2271,7 @@
     <col min="2" max="2" width="22.42578125" customWidth="1"/>
     <col min="3" max="3" width="26.140625" customWidth="1"/>
     <col min="4" max="4" width="40.7109375" customWidth="1"/>
-    <col min="5" max="5" width="40.140625" customWidth="1"/>
+    <col min="5" max="5" width="50.140625" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
     <col min="8" max="8" width="16.85546875" customWidth="1"/>
@@ -2354,14 +2354,13 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" t="e">
-        <f>-SME Tawrruq Auto Retails Loan Sub</f>
-        <v>#NAME?</v>
+        <v>272</v>
+      </c>
+      <c r="D2" t="s">
+        <v>273</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2407,10 +2406,10 @@
         <v>39</v>
       </c>
       <c r="N4" t="s">
+        <v>274</v>
+      </c>
+      <c r="O4" t="s">
         <v>41</v>
-      </c>
-      <c r="O4" t="s">
-        <v>42</v>
       </c>
       <c r="P4" t="s">
         <v>40</v>
@@ -2436,7 +2435,7 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2465,97 +2464,97 @@
         <v>5</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="L1" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
         <v>43</v>
       </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2">
         <v>2022</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
         <v>54</v>
       </c>
-      <c r="B3" t="s">
-        <v>55</v>
-      </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M3">
         <v>1234</v>
@@ -2563,25 +2562,25 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" t="s">
         <v>64</v>
       </c>
-      <c r="B4" t="s">
-        <v>65</v>
-      </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M4">
         <v>1234</v>
@@ -2589,34 +2588,34 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
         <v>66</v>
       </c>
-      <c r="B5" t="s">
-        <v>67</v>
-      </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M5">
         <v>1234</v>
       </c>
       <c r="N5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2659,61 +2658,61 @@
         <v>5</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="E2" s="1">
         <v>100</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G2" s="1">
         <v>-100</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J2" s="1">
         <v>1000</v>
@@ -2750,15 +2749,15 @@
         <v>5</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="C2" s="3">
         <v>3620</v>
@@ -2766,10 +2765,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="C3" s="3">
         <v>3620</v>
@@ -2777,10 +2776,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="C4" s="3">
         <v>3620</v>
@@ -2788,10 +2787,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="C5" s="3">
         <v>3620</v>
@@ -2835,51 +2834,51 @@
         <v>5</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D2" s="1">
         <v>450</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F2" s="1">
         <v>10</v>
@@ -2933,48 +2932,48 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" t="s">
         <v>114</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>115</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>116</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>117</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>118</v>
-      </c>
-      <c r="I1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D2">
         <v>2974</v>
@@ -2982,19 +2981,19 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D3">
         <v>2974</v>
       </c>
       <c r="E3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F3">
         <v>4000</v>
@@ -3014,13 +3013,13 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D4">
         <v>2974</v>
@@ -3029,10 +3028,10 @@
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="J4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3073,83 +3072,83 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
       <c r="C1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" t="s">
         <v>134</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>135</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" t="s">
         <v>136</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>137</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>138</v>
       </c>
-      <c r="H1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>139</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>140</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>141</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>142</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>143</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>144</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>145</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>146</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>147</v>
-      </c>
-      <c r="R1" t="s">
-        <v>148</v>
-      </c>
-      <c r="S1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C2">
         <v>3393</v>
       </c>
       <c r="K2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C3">
         <v>3393</v>
@@ -3161,10 +3160,10 @@
         <v>13000</v>
       </c>
       <c r="F3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H3">
         <v>85000</v>
@@ -3173,19 +3172,19 @@
         <v>100</v>
       </c>
       <c r="K3" t="s">
+        <v>147</v>
+      </c>
+      <c r="L3" t="s">
         <v>150</v>
       </c>
-      <c r="L3" t="s">
-        <v>153</v>
-      </c>
       <c r="M3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="O3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P3">
         <v>1500</v>
@@ -3194,24 +3193,24 @@
         <v>100</v>
       </c>
       <c r="R3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C4">
         <v>3393</v>
       </c>
       <c r="F4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H4">
         <v>58000</v>
@@ -3220,16 +3219,16 @@
         <v>100</v>
       </c>
       <c r="L4" t="s">
+        <v>156</v>
+      </c>
+      <c r="M4" t="s">
+        <v>157</v>
+      </c>
+      <c r="N4" t="s">
+        <v>158</v>
+      </c>
+      <c r="O4" t="s">
         <v>159</v>
-      </c>
-      <c r="M4" t="s">
-        <v>160</v>
-      </c>
-      <c r="N4" t="s">
-        <v>161</v>
-      </c>
-      <c r="O4" t="s">
-        <v>162</v>
       </c>
       <c r="P4">
         <v>750</v>
@@ -3240,10 +3239,10 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C5">
         <v>3393</v>
@@ -3255,18 +3254,18 @@
         <v>18500</v>
       </c>
       <c r="F5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C6">
         <v>3393</v>
@@ -3278,24 +3277,24 @@
         <v>8950</v>
       </c>
       <c r="F6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H6">
         <v>22000</v>
       </c>
       <c r="I6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C7">
         <v>3393</v>
@@ -3303,27 +3302,27 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C8">
         <v>3393</v>
       </c>
       <c r="R8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="S8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C9">
         <v>3393</v>

--- a/Gowtham_ULS_New/TestData/ijaraTestData.xlsx
+++ b/Gowtham_ULS_New/TestData/ijaraTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" firstSheet="9" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="TWAppDataEntryFacilityDetails" sheetId="11" r:id="rId10"/>
     <sheet name="IjaraAppDataEntryCFIncome" sheetId="12" r:id="rId11"/>
     <sheet name="ALoanAppdataEntryContactDetails" sheetId="13" r:id="rId12"/>
+    <sheet name="ALoanAppdataentryIncomedetails" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="293">
   <si>
     <t>UserName</t>
   </si>
@@ -850,6 +851,60 @@
   </si>
   <si>
     <t xml:space="preserve">Mumbai </t>
+  </si>
+  <si>
+    <t>AT_AL_INC_01</t>
+  </si>
+  <si>
+    <t>DS_AT_AL_INC_01</t>
+  </si>
+  <si>
+    <t>AT_AL_INC_02</t>
+  </si>
+  <si>
+    <t>DS_AT_AL_INC_02</t>
+  </si>
+  <si>
+    <t>AT_AL_INC_03</t>
+  </si>
+  <si>
+    <t>DS_AT_AL_INC_03</t>
+  </si>
+  <si>
+    <t>AT_AL_INC_04</t>
+  </si>
+  <si>
+    <t>DS_AT_AL_INC_04</t>
+  </si>
+  <si>
+    <t>AT_AL_INC_05</t>
+  </si>
+  <si>
+    <t>DS_AT_AL_INC_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ashok Marg Jaipur Branch </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CASH RENTAL INCOME </t>
+  </si>
+  <si>
+    <t>AT_AL_INC_06</t>
+  </si>
+  <si>
+    <t>AT_AL_INC_07</t>
+  </si>
+  <si>
+    <t>AT_AL_INC_08</t>
+  </si>
+  <si>
+    <t>DS_AT_AL_INC_06</t>
+  </si>
+  <si>
+    <t>DS_AT_AL_INC_07</t>
+  </si>
+  <si>
+    <t>DS_AT_AL_INC_08</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1076,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1048,6 +1103,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="1"/>
@@ -1346,7 +1405,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2029,7 +2088,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2216,6 +2275,126 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2" s="18">
+        <v>4138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="C3" s="18">
+        <v>4138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="C4" s="18">
+        <v>4138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="C5" s="18">
+        <v>4138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="C6" s="19">
+        <v>4138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="C7" s="19">
+        <v>4138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="C8" s="19">
+        <v>4138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="C9" s="19">
+        <v>4138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
@@ -2261,7 +2440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
@@ -3043,8 +3222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3061,7 +3240,7 @@
     <col min="10" max="10" width="16.5703125" customWidth="1"/>
     <col min="11" max="11" width="19.140625" customWidth="1"/>
     <col min="12" max="12" width="15.5703125" customWidth="1"/>
-    <col min="13" max="13" width="16" customWidth="1"/>
+    <col min="13" max="13" width="21.42578125" customWidth="1"/>
     <col min="14" max="14" width="19.7109375" customWidth="1"/>
     <col min="15" max="15" width="13.7109375" customWidth="1"/>
     <col min="16" max="16" width="14.5703125" customWidth="1"/>
@@ -3178,10 +3357,10 @@
         <v>150</v>
       </c>
       <c r="M3" t="s">
-        <v>151</v>
+        <v>285</v>
       </c>
       <c r="N3" t="s">
-        <v>152</v>
+        <v>286</v>
       </c>
       <c r="O3" t="s">
         <v>149</v>

--- a/Gowtham_ULS_New/TestData/ijaraTestData.xlsx
+++ b/Gowtham_ULS_New/TestData/ijaraTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" firstSheet="9" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" firstSheet="10" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="IjaraAppDataEntryCFIncome" sheetId="12" r:id="rId11"/>
     <sheet name="ALoanAppdataEntryContactDetails" sheetId="13" r:id="rId12"/>
     <sheet name="ALoanAppdataentryIncomedetails" sheetId="14" r:id="rId13"/>
+    <sheet name="ALADEntryIdentificationDetails" sheetId="16" r:id="rId14"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="321">
   <si>
     <t>UserName</t>
   </si>
@@ -905,6 +906,90 @@
   </si>
   <si>
     <t>DS_AT_AL_INC_08</t>
+  </si>
+  <si>
+    <t>id_type</t>
+  </si>
+  <si>
+    <t>id_number</t>
+  </si>
+  <si>
+    <t>issue_authority</t>
+  </si>
+  <si>
+    <t>country_of_issue</t>
+  </si>
+  <si>
+    <t>character_input</t>
+  </si>
+  <si>
+    <t>special_character_input</t>
+  </si>
+  <si>
+    <t>valid_search_text</t>
+  </si>
+  <si>
+    <t>invalid_search_text</t>
+  </si>
+  <si>
+    <t>AADHAR</t>
+  </si>
+  <si>
+    <t>INDIA</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>!@#$</t>
+  </si>
+  <si>
+    <t>abcdef</t>
+  </si>
+  <si>
+    <t>AT_AL_IND_01</t>
+  </si>
+  <si>
+    <t>AT_AL_IND_02</t>
+  </si>
+  <si>
+    <t>AT_AL_IND_03</t>
+  </si>
+  <si>
+    <t>AT_AL_IND_04</t>
+  </si>
+  <si>
+    <t>AT_AL_IND_05</t>
+  </si>
+  <si>
+    <t>AT_AL_IND_06</t>
+  </si>
+  <si>
+    <t>DS_AT_AL_IND_01</t>
+  </si>
+  <si>
+    <t>DS_AT_AL_IND_02</t>
+  </si>
+  <si>
+    <t>DS_AT_AL_IND_03</t>
+  </si>
+  <si>
+    <t>DS_AT_AL_IND_04</t>
+  </si>
+  <si>
+    <t>DS_AT_AL_IND_05</t>
+  </si>
+  <si>
+    <t>DS_AT_AL_IND_06</t>
+  </si>
+  <si>
+    <t>8745632147856</t>
+  </si>
+  <si>
+    <t>9874563214566</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Government of KSA </t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1161,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1107,6 +1192,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="1"/>
@@ -1405,7 +1491,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2088,7 +2174,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2279,8 +2365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2392,6 +2478,169 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C2">
+        <v>2971</v>
+      </c>
+      <c r="D2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="F2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C3">
+        <v>2971</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="H3" t="s">
+        <v>303</v>
+      </c>
+      <c r="I3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C4">
+        <v>2971</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C5">
+        <v>2971</v>
+      </c>
+      <c r="H5" t="s">
+        <v>303</v>
+      </c>
+      <c r="I5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B6" t="s">
+        <v>316</v>
+      </c>
+      <c r="C6">
+        <v>2971</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>311</v>
+      </c>
+      <c r="B7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C7">
+        <v>2971</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="K7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3222,8 +3471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Gowtham_ULS_New/TestData/ijaraTestData.xlsx
+++ b/Gowtham_ULS_New/TestData/ijaraTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" firstSheet="10" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" firstSheet="10" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,14 @@
     <sheet name="ALoanAppdataEntryContactDetails" sheetId="13" r:id="rId12"/>
     <sheet name="ALoanAppdataentryIncomedetails" sheetId="14" r:id="rId13"/>
     <sheet name="ALADEntryIdentificationDetails" sheetId="16" r:id="rId14"/>
+    <sheet name="IjADataEntryIdentifiDetails" sheetId="17" r:id="rId15"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="334">
   <si>
     <t>UserName</t>
   </si>
@@ -990,6 +991,45 @@
   </si>
   <si>
     <t xml:space="preserve"> Government of KSA </t>
+  </si>
+  <si>
+    <t>userType08</t>
+  </si>
+  <si>
+    <t>0343</t>
+  </si>
+  <si>
+    <t>AT_IJ_IND_01</t>
+  </si>
+  <si>
+    <t>DS_AT_IJ_IND_01</t>
+  </si>
+  <si>
+    <t>AT_IJ_IND_02</t>
+  </si>
+  <si>
+    <t>AT_IJ_IND_03</t>
+  </si>
+  <si>
+    <t>AT_IJ_IND_04</t>
+  </si>
+  <si>
+    <t>AT_IJ_IND_05</t>
+  </si>
+  <si>
+    <t>DS_AT_IJ_IND_02</t>
+  </si>
+  <si>
+    <t>DS_AT_IJ_IND_03</t>
+  </si>
+  <si>
+    <t>DS_AT_IJ_IND_04</t>
+  </si>
+  <si>
+    <t>DS_AT_IJ_IND_05</t>
+  </si>
+  <si>
+    <t>`</t>
   </si>
 </sst>
 </file>
@@ -1488,10 +1528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1606,6 +1646,20 @@
       </c>
       <c r="D8" t="s">
         <v>258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2485,8 +2539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2641,6 +2695,98 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="43.85546875" customWidth="1"/>
+    <col min="2" max="2" width="52.140625" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="B2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C2">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="B3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C3">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="B4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C4">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="B5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C5">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="B6" t="s">
+        <v>332</v>
+      </c>
+      <c r="C6">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="C10" t="s">
+        <v>333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Gowtham_ULS_New/TestData/ijaraTestData.xlsx
+++ b/Gowtham_ULS_New/TestData/ijaraTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" firstSheet="10" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,14 @@
     <sheet name="ALoanAppdataentryIncomedetails" sheetId="14" r:id="rId13"/>
     <sheet name="ALADEntryIdentificationDetails" sheetId="16" r:id="rId14"/>
     <sheet name="IjADataEntryIdentifiDetails" sheetId="17" r:id="rId15"/>
+    <sheet name="TWAppDataCheckAddressDetails" sheetId="18" r:id="rId16"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="375">
   <si>
     <t>UserName</t>
   </si>
@@ -1030,6 +1031,129 @@
   </si>
   <si>
     <t>`</t>
+  </si>
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Dataset ID</t>
+  </si>
+  <si>
+    <t>address_type</t>
+  </si>
+  <si>
+    <t>address_status</t>
+  </si>
+  <si>
+    <t>residential_or_occupansy_status</t>
+  </si>
+  <si>
+    <t>location_category</t>
+  </si>
+  <si>
+    <t>address_line_1</t>
+  </si>
+  <si>
+    <t>address_line_2</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>provience_id</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>district_name</t>
+  </si>
+  <si>
+    <t>zip_code</t>
+  </si>
+  <si>
+    <t>po_box_number</t>
+  </si>
+  <si>
+    <t>mobile_number</t>
+  </si>
+  <si>
+    <t>duration_on_stay</t>
+  </si>
+  <si>
+    <t>latitude_details</t>
+  </si>
+  <si>
+    <t>longitude_details</t>
+  </si>
+  <si>
+    <t>land_mark</t>
+  </si>
+  <si>
+    <t>occupancy_date</t>
+  </si>
+  <si>
+    <t>land_lord_name</t>
+  </si>
+  <si>
+    <t>land_lord_mobile_number</t>
+  </si>
+  <si>
+    <t>rent_amount</t>
+  </si>
+  <si>
+    <t>frequency_of_rent</t>
+  </si>
+  <si>
+    <t>characterInput</t>
+  </si>
+  <si>
+    <t>match_search</t>
+  </si>
+  <si>
+    <t>not_match_search</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Commercial rent</t>
+  </si>
+  <si>
+    <t>Central Region</t>
+  </si>
+  <si>
+    <t>test aadress line</t>
+  </si>
+  <si>
+    <t>MAHARASHTRA</t>
+  </si>
+  <si>
+    <t>BHANDARA</t>
+  </si>
+  <si>
+    <t>konhan</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>yearly</t>
+  </si>
+  <si>
+    <t>AT_TW_ADP_AD_01</t>
+  </si>
+  <si>
+    <t>DS_AT_TW_ADP_AD_01</t>
+  </si>
+  <si>
+    <t>userType09</t>
+  </si>
+  <si>
+    <t>TawaruAppDataCheck</t>
   </si>
 </sst>
 </file>
@@ -1201,7 +1325,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1233,6 +1357,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="1"/>
@@ -1528,10 +1653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1660,6 +1785,20 @@
       </c>
       <c r="D9" t="s">
         <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B10" s="11">
+        <v>3102</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" t="s">
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -2702,8 +2841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2783,6 +2922,233 @@
       <c r="C10" t="s">
         <v>333</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AC7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29">
+      <c r="A1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F1" t="s">
+        <v>338</v>
+      </c>
+      <c r="G1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I1" t="s">
+        <v>341</v>
+      </c>
+      <c r="J1" t="s">
+        <v>342</v>
+      </c>
+      <c r="K1" t="s">
+        <v>343</v>
+      </c>
+      <c r="L1" t="s">
+        <v>344</v>
+      </c>
+      <c r="M1" t="s">
+        <v>345</v>
+      </c>
+      <c r="N1" t="s">
+        <v>346</v>
+      </c>
+      <c r="O1" t="s">
+        <v>347</v>
+      </c>
+      <c r="P1" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>349</v>
+      </c>
+      <c r="R1" t="s">
+        <v>350</v>
+      </c>
+      <c r="S1" t="s">
+        <v>351</v>
+      </c>
+      <c r="T1" t="s">
+        <v>352</v>
+      </c>
+      <c r="U1" t="s">
+        <v>353</v>
+      </c>
+      <c r="V1" t="s">
+        <v>354</v>
+      </c>
+      <c r="W1" t="s">
+        <v>355</v>
+      </c>
+      <c r="X1" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>298</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>359</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="B2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C2">
+        <v>3061</v>
+      </c>
+      <c r="D2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E2" t="s">
+        <v>362</v>
+      </c>
+      <c r="F2" t="s">
+        <v>363</v>
+      </c>
+      <c r="G2" t="s">
+        <v>364</v>
+      </c>
+      <c r="H2" t="s">
+        <v>365</v>
+      </c>
+      <c r="I2" t="s">
+        <v>365</v>
+      </c>
+      <c r="J2" t="s">
+        <v>302</v>
+      </c>
+      <c r="K2" t="s">
+        <v>366</v>
+      </c>
+      <c r="L2" t="s">
+        <v>367</v>
+      </c>
+      <c r="M2" t="s">
+        <v>368</v>
+      </c>
+      <c r="N2">
+        <v>987456</v>
+      </c>
+      <c r="O2">
+        <v>974121</v>
+      </c>
+      <c r="P2">
+        <v>9874563210</v>
+      </c>
+      <c r="Q2">
+        <v>20</v>
+      </c>
+      <c r="R2">
+        <v>101010</v>
+      </c>
+      <c r="S2">
+        <v>101010</v>
+      </c>
+      <c r="T2" t="s">
+        <v>369</v>
+      </c>
+      <c r="U2" s="21">
+        <v>36779</v>
+      </c>
+      <c r="V2" t="s">
+        <v>369</v>
+      </c>
+      <c r="W2">
+        <v>9874563210</v>
+      </c>
+      <c r="X2">
+        <v>10000</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
+      <c r="A3" s="14"/>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="A4" s="14"/>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5" s="14"/>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="A6" s="14"/>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="A7" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Gowtham_ULS_New/TestData/ijaraTestData.xlsx
+++ b/Gowtham_ULS_New/TestData/ijaraTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" firstSheet="12" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -23,13 +23,14 @@
     <sheet name="ALADEntryIdentificationDetails" sheetId="16" r:id="rId14"/>
     <sheet name="IjADataEntryIdentifiDetails" sheetId="17" r:id="rId15"/>
     <sheet name="TWAppDataCheckAddressDetails" sheetId="18" r:id="rId16"/>
+    <sheet name="MurApDataEntryAppDetails" sheetId="19" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="383">
   <si>
     <t>UserName</t>
   </si>
@@ -1154,6 +1155,30 @@
   </si>
   <si>
     <t>TawaruAppDataCheck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi National Bank </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akrudi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azentio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPUP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Financier </t>
+  </si>
+  <si>
+    <t>AT_MU_APE_AD_01</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_APE_AD_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EASTERN </t>
   </si>
 </sst>
 </file>
@@ -1325,7 +1350,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1358,6 +1383,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="1"/>
@@ -1655,8 +1683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3156,6 +3184,159 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" customWidth="1"/>
+    <col min="9" max="9" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="45">
+      <c r="A1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="R2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
@@ -3202,7 +3383,7 @@
   <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection sqref="A1:S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Gowtham_ULS_New/TestData/ijaraTestData.xlsx
+++ b/Gowtham_ULS_New/TestData/ijaraTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" firstSheet="12" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" firstSheet="13" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -24,13 +24,14 @@
     <sheet name="IjADataEntryIdentifiDetails" sheetId="17" r:id="rId15"/>
     <sheet name="TWAppDataCheckAddressDetails" sheetId="18" r:id="rId16"/>
     <sheet name="MurApDataEntryAppDetails" sheetId="19" r:id="rId17"/>
+    <sheet name="MuADCheckLivingExpenses" sheetId="20" r:id="rId18"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="388">
   <si>
     <t>UserName</t>
   </si>
@@ -1179,6 +1180,21 @@
   </si>
   <si>
     <t xml:space="preserve">EASTERN </t>
+  </si>
+  <si>
+    <t>userType10</t>
+  </si>
+  <si>
+    <t>MurabhaAppDataCheck</t>
+  </si>
+  <si>
+    <t>Record No</t>
+  </si>
+  <si>
+    <t>AT_MU_ADC_LV_01</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_ADC_LV_01</t>
   </si>
 </sst>
 </file>
@@ -1350,7 +1366,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1386,6 +1402,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="1"/>
@@ -1681,10 +1698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1827,6 +1844,20 @@
       </c>
       <c r="D10" t="s">
         <v>374</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B11" s="11">
+        <v>1266</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -2026,7 +2057,7 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2395,7 +2426,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2416,7 +2447,7 @@
     <col min="14" max="14" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1">
       <c r="A1" s="13" t="s">
         <v>110</v>
       </c>
@@ -2460,11 +2491,11 @@
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A2" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="8" t="s">
         <v>261</v>
       </c>
       <c r="C2">
@@ -2504,11 +2535,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A3" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="8" t="s">
         <v>266</v>
       </c>
       <c r="C3">
@@ -2527,11 +2558,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A4" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="8" t="s">
         <v>267</v>
       </c>
       <c r="C4">
@@ -2541,22 +2572,22 @@
         <v>270</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A5" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="8" t="s">
         <v>268</v>
       </c>
       <c r="C5">
         <v>2971</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A6" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="8" t="s">
         <v>269</v>
       </c>
       <c r="C6">
@@ -2707,7 +2738,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2725,7 +2756,7 @@
     <col min="11" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1">
       <c r="A1" s="13" t="s">
         <v>110</v>
       </c>
@@ -2760,11 +2791,11 @@
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A2" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="8" t="s">
         <v>312</v>
       </c>
       <c r="C2">
@@ -2783,11 +2814,11 @@
         <v>302</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A3" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="8" t="s">
         <v>313</v>
       </c>
       <c r="C3">
@@ -2801,11 +2832,11 @@
         <v>304</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A4" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="8" t="s">
         <v>314</v>
       </c>
       <c r="C4">
@@ -2815,11 +2846,11 @@
         <v>318</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
+    <row r="5" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A5" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="8" t="s">
         <v>315</v>
       </c>
       <c r="C5">
@@ -2832,22 +2863,22 @@
         <v>304</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A6" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="8" t="s">
         <v>316</v>
       </c>
       <c r="C6">
         <v>2971</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
+    <row r="7" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A7" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="8" t="s">
         <v>317</v>
       </c>
       <c r="C7">
@@ -2870,7 +2901,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2880,7 +2911,7 @@
     <col min="3" max="3" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1">
       <c r="A1" s="13" t="s">
         <v>110</v>
       </c>
@@ -2891,55 +2922,55 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A2" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="8" t="s">
         <v>324</v>
       </c>
       <c r="C2">
         <v>2973</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A3" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="8" t="s">
         <v>329</v>
       </c>
       <c r="C3">
         <v>2973</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A4" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="8" t="s">
         <v>330</v>
       </c>
       <c r="C4">
         <v>2973</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A5" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="8" t="s">
         <v>331</v>
       </c>
       <c r="C5">
         <v>2973</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A6" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="8" t="s">
         <v>332</v>
       </c>
       <c r="C6">
@@ -2962,7 +2993,7 @@
   <dimension ref="A1:AC7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2998,99 +3029,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
-      <c r="A1" t="s">
+      <c r="A1" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="13" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:29">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="23" t="s">
         <v>371</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="23" t="s">
         <v>372</v>
       </c>
       <c r="C2">
@@ -3188,8 +3219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3332,6 +3363,52 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="C2">
+        <v>3512</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:B2">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Gowtham_ULS_New/TestData/ijaraTestData.xlsx
+++ b/Gowtham_ULS_New/TestData/ijaraTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" firstSheet="13" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" firstSheet="13" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="385">
   <si>
     <t>UserName</t>
   </si>
@@ -147,18 +147,6 @@
     <t xml:space="preserve"> BT Topup </t>
   </si>
   <si>
-    <t xml:space="preserve"> FI Agency </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMBA BANK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sachin Sudhakar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pithampur (SPOKE M.P) </t>
-  </si>
-  <si>
     <t>AT_IJCS_01</t>
   </si>
   <si>
@@ -855,9 +843,6 @@
     <t xml:space="preserve">Ijarah Auto Loan-Retail </t>
   </si>
   <si>
-    <t xml:space="preserve">Mumbai </t>
-  </si>
-  <si>
     <t>AT_AL_INC_01</t>
   </si>
   <si>
@@ -1179,9 +1164,6 @@
     <t>DS_AT_MU_APE_AD_01</t>
   </si>
   <si>
-    <t xml:space="preserve">EASTERN </t>
-  </si>
-  <si>
     <t>userType10</t>
   </si>
   <si>
@@ -1195,6 +1177,15 @@
   </si>
   <si>
     <t>DS_AT_MU_ADC_LV_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> East Zone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">East Zone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Developer </t>
   </si>
 </sst>
 </file>
@@ -1728,136 +1719,136 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B10" s="11">
         <v>3102</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B11" s="11">
         <v>1266</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -1895,69 +1886,69 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H1" t="s">
         <v>183</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>184</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>185</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>186</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>187</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>188</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O1" t="s">
         <v>189</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>190</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
         <v>191</v>
       </c>
-      <c r="M1" t="s">
+      <c r="R1" t="s">
         <v>192</v>
       </c>
-      <c r="N1" t="s">
-        <v>145</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>193</v>
-      </c>
-      <c r="P1" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>195</v>
-      </c>
-      <c r="R1" t="s">
-        <v>196</v>
-      </c>
-      <c r="S1" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C2">
         <v>3016</v>
@@ -1965,34 +1956,34 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C3">
         <v>3016</v>
       </c>
       <c r="D3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H3" t="s">
         <v>202</v>
       </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
         <v>203</v>
       </c>
-      <c r="F3" t="s">
+      <c r="J3" t="s">
         <v>204</v>
-      </c>
-      <c r="G3" t="s">
-        <v>205</v>
-      </c>
-      <c r="H3" t="s">
-        <v>206</v>
-      </c>
-      <c r="I3" t="s">
-        <v>207</v>
-      </c>
-      <c r="J3" t="s">
-        <v>208</v>
       </c>
       <c r="K3">
         <v>1000000</v>
@@ -2004,47 +1995,47 @@
         <v>60000</v>
       </c>
       <c r="N3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O3">
         <v>2</v>
       </c>
       <c r="P3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C4">
         <v>3016</v>
       </c>
       <c r="E4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="Q4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C5">
         <v>3016</v>
       </c>
       <c r="R5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="S5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -2069,69 +2060,69 @@
   <sheetData>
     <row r="1" spans="1:19" ht="39.75" thickBot="1">
       <c r="A1" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="H1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1">
       <c r="A2" s="8" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C2" s="9">
         <v>3393</v>
@@ -2144,7 +2135,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
@@ -2157,10 +2148,10 @@
     </row>
     <row r="3" spans="1:19" ht="39.75" thickBot="1">
       <c r="A3" s="8" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C3" s="9">
         <v>3393</v>
@@ -2172,10 +2163,10 @@
         <v>13000</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H3" s="9">
         <v>85000</v>
@@ -2185,19 +2176,19 @@
         <v>100</v>
       </c>
       <c r="K3" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="M3" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="L3" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>151</v>
-      </c>
       <c r="N3" s="9" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P3" s="9">
         <v>1500</v>
@@ -2206,16 +2197,16 @@
         <v>100</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="S3" s="9"/>
     </row>
     <row r="4" spans="1:19" ht="27" thickBot="1">
       <c r="A4" s="8" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C4" s="9">
         <v>3393</v>
@@ -2223,10 +2214,10 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H4" s="9">
         <v>58000</v>
@@ -2237,16 +2228,16 @@
       </c>
       <c r="K4" s="9"/>
       <c r="L4" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P4" s="9">
         <v>750</v>
@@ -2259,10 +2250,10 @@
     </row>
     <row r="5" spans="1:19" ht="39.75" thickBot="1">
       <c r="A5" s="8" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C5" s="9">
         <v>3393</v>
@@ -2274,10 +2265,10 @@
         <v>18500</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
@@ -2294,10 +2285,10 @@
     </row>
     <row r="6" spans="1:19" ht="39.75" thickBot="1">
       <c r="A6" s="8" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C6" s="9">
         <v>3393</v>
@@ -2309,16 +2300,16 @@
         <v>8950</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H6" s="9">
         <v>22000</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -2333,10 +2324,10 @@
     </row>
     <row r="7" spans="1:19" ht="15.75" thickBot="1">
       <c r="A7" s="8" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C7" s="9">
         <v>3393</v>
@@ -2360,10 +2351,10 @@
     </row>
     <row r="8" spans="1:19" ht="15.75" thickBot="1">
       <c r="A8" s="8" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C8" s="9">
         <v>3393</v>
@@ -2383,18 +2374,18 @@
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
       <c r="R8" s="9" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="15.75" thickBot="1">
       <c r="A9" s="8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C9" s="9">
         <v>3393</v>
@@ -2449,135 +2440,135 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1">
       <c r="A1" s="13" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>246</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1">
       <c r="A2" s="8" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C2">
         <v>2971</v>
       </c>
       <c r="D2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H2" s="12">
         <v>0.4236111111111111</v>
       </c>
       <c r="I2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="J2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="M2">
         <v>-987456321</v>
       </c>
       <c r="N2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" thickBot="1">
       <c r="A3" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>262</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>266</v>
       </c>
       <c r="C3">
         <v>2971</v>
       </c>
       <c r="K3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="M3">
         <v>-9875632</v>
       </c>
       <c r="N3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1">
       <c r="A4" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>263</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>267</v>
       </c>
       <c r="C4">
         <v>2971</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1">
       <c r="A5" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>264</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>268</v>
       </c>
       <c r="C5">
         <v>2971</v>
@@ -2585,26 +2576,26 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1">
       <c r="A6" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>265</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>269</v>
       </c>
       <c r="C6">
         <v>2971</v>
       </c>
       <c r="K6" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L6" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="M6">
         <f>M3-987456321</f>
         <v>-997331953</v>
       </c>
       <c r="N6" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -2630,21 +2621,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="13" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="16" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C2" s="18">
         <v>4138</v>
@@ -2652,10 +2643,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="16" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C3" s="18">
         <v>4138</v>
@@ -2663,10 +2654,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="16" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C4" s="18">
         <v>4138</v>
@@ -2674,10 +2665,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="16" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C5" s="18">
         <v>4138</v>
@@ -2685,10 +2676,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="16" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C6" s="19">
         <v>4138</v>
@@ -2696,10 +2687,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="16" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C7" s="19">
         <v>4138</v>
@@ -2707,10 +2698,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="16" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C8" s="19">
         <v>4138</v>
@@ -2718,10 +2709,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="16" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C9" s="19">
         <v>4138</v>
@@ -2758,117 +2749,117 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1">
       <c r="A1" s="13" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="I1" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>295</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1">
       <c r="A2" s="8" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C2">
         <v>2971</v>
       </c>
       <c r="D2" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1">
       <c r="A3" s="8" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C3">
         <v>2971</v>
       </c>
       <c r="E3" s="18"/>
       <c r="H3" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="I3" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1">
       <c r="A4" s="8" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C4">
         <v>2971</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1">
       <c r="A5" s="8" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C5">
         <v>2971</v>
       </c>
       <c r="H5" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="I5" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1">
       <c r="A6" s="8" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C6">
         <v>2971</v>
@@ -2876,19 +2867,19 @@
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1">
       <c r="A7" s="8" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C7">
         <v>2971</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="K7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -2913,21 +2904,21 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1">
       <c r="A1" s="13" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1">
       <c r="A2" s="8" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C2">
         <v>2973</v>
@@ -2935,10 +2926,10 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1">
       <c r="A3" s="8" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C3">
         <v>2973</v>
@@ -2946,10 +2937,10 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1">
       <c r="A4" s="8" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C4">
         <v>2973</v>
@@ -2957,10 +2948,10 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1">
       <c r="A5" s="8" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C5">
         <v>2973</v>
@@ -2968,10 +2959,10 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1">
       <c r="A6" s="8" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C6">
         <v>2973</v>
@@ -2979,7 +2970,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="C10" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -3030,132 +3021,132 @@
   <sheetData>
     <row r="1" spans="1:29">
       <c r="A1" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="T1" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="U1" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="V1" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="W1" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="X1" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="Y1" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="Z1" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="AA1" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="AB1" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="AC1" s="13" t="s">
         <v>355</v>
-      </c>
-      <c r="X1" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="Y1" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="Z1" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="AA1" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="AB1" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="AC1" s="13" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="23" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C2">
         <v>3061</v>
       </c>
       <c r="D2" t="s">
+        <v>356</v>
+      </c>
+      <c r="E2" t="s">
+        <v>357</v>
+      </c>
+      <c r="F2" t="s">
+        <v>358</v>
+      </c>
+      <c r="G2" t="s">
+        <v>359</v>
+      </c>
+      <c r="H2" t="s">
+        <v>360</v>
+      </c>
+      <c r="I2" t="s">
+        <v>360</v>
+      </c>
+      <c r="J2" t="s">
+        <v>297</v>
+      </c>
+      <c r="K2" t="s">
         <v>361</v>
       </c>
-      <c r="E2" t="s">
+      <c r="L2" t="s">
         <v>362</v>
       </c>
-      <c r="F2" t="s">
+      <c r="M2" t="s">
         <v>363</v>
-      </c>
-      <c r="G2" t="s">
-        <v>364</v>
-      </c>
-      <c r="H2" t="s">
-        <v>365</v>
-      </c>
-      <c r="I2" t="s">
-        <v>365</v>
-      </c>
-      <c r="J2" t="s">
-        <v>302</v>
-      </c>
-      <c r="K2" t="s">
-        <v>366</v>
-      </c>
-      <c r="L2" t="s">
-        <v>367</v>
-      </c>
-      <c r="M2" t="s">
-        <v>368</v>
       </c>
       <c r="N2">
         <v>987456</v>
@@ -3176,13 +3167,13 @@
         <v>101010</v>
       </c>
       <c r="T2" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="U2" s="21">
         <v>36779</v>
       </c>
       <c r="V2" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="W2">
         <v>9874563210</v>
@@ -3191,7 +3182,7 @@
         <v>10000</v>
       </c>
       <c r="Y2" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -3219,8 +3210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3305,19 +3296,19 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="17" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F2" s="1">
         <v>10000</v>
@@ -3341,25 +3332,25 @@
         <v>34</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="R2" s="1">
         <v>10000</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -3372,8 +3363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3391,15 +3382,15 @@
         <v>5</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="17" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C2">
         <v>3512</v>
@@ -3460,7 +3451,7 @@
   <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection sqref="A1:S4"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3552,13 +3543,13 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3590,7 +3581,7 @@
         <v>34</v>
       </c>
       <c r="M3" t="s">
-        <v>39</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3601,16 +3592,16 @@
         <v>36</v>
       </c>
       <c r="M4" t="s">
-        <v>39</v>
+        <v>383</v>
       </c>
       <c r="N4" t="s">
-        <v>274</v>
+        <v>383</v>
       </c>
       <c r="O4" t="s">
-        <v>41</v>
+        <v>371</v>
       </c>
       <c r="P4" t="s">
-        <v>40</v>
+        <v>372</v>
       </c>
       <c r="Q4" t="s">
         <v>37</v>
@@ -3619,7 +3610,7 @@
         <v>10000</v>
       </c>
       <c r="S4" t="s">
-        <v>38</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -3662,97 +3653,97 @@
         <v>5</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="M1" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D2">
         <v>2022</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
         <v>48</v>
-      </c>
-      <c r="F2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="I3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="K3" t="s">
-        <v>60</v>
-      </c>
       <c r="L3" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M3">
         <v>1234</v>
@@ -3760,25 +3751,25 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" t="s">
         <v>52</v>
       </c>
-      <c r="H4" t="s">
-        <v>56</v>
-      </c>
       <c r="L4" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M4">
         <v>1234</v>
@@ -3786,34 +3777,34 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" t="s">
         <v>52</v>
       </c>
-      <c r="H5" t="s">
-        <v>56</v>
-      </c>
       <c r="L5" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M5">
         <v>1234</v>
       </c>
       <c r="N5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3856,61 +3847,61 @@
         <v>5</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E2" s="1">
         <v>100</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G2" s="1">
         <v>-100</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J2" s="1">
         <v>1000</v>
@@ -3947,15 +3938,15 @@
         <v>5</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C2" s="3">
         <v>3620</v>
@@ -3963,10 +3954,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C3" s="3">
         <v>3620</v>
@@ -3974,10 +3965,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C4" s="3">
         <v>3620</v>
@@ -3985,10 +3976,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C5" s="3">
         <v>3620</v>
@@ -4005,7 +3996,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4032,51 +4023,51 @@
         <v>5</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D2" s="1">
         <v>450</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F2" s="1">
         <v>10</v>
@@ -4130,48 +4121,48 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" t="s">
         <v>111</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>112</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>113</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>114</v>
-      </c>
-      <c r="H1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I1" t="s">
-        <v>116</v>
-      </c>
-      <c r="J1" t="s">
-        <v>117</v>
-      </c>
-      <c r="K1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D2">
         <v>2974</v>
@@ -4179,19 +4170,19 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D3">
         <v>2974</v>
       </c>
       <c r="E3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F3">
         <v>4000</v>
@@ -4211,13 +4202,13 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D4">
         <v>2974</v>
@@ -4226,10 +4217,10 @@
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="J4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -4270,83 +4261,83 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
       <c r="C1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" t="s">
         <v>131</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" t="s">
         <v>132</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>133</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>134</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>135</v>
       </c>
-      <c r="H1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>136</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>137</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>138</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>139</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>140</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>141</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>142</v>
-      </c>
-      <c r="P1" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>144</v>
-      </c>
-      <c r="R1" t="s">
-        <v>145</v>
-      </c>
-      <c r="S1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="6" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C2">
         <v>3393</v>
       </c>
       <c r="K2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C3">
         <v>3393</v>
@@ -4358,10 +4349,10 @@
         <v>13000</v>
       </c>
       <c r="F3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H3">
         <v>85000</v>
@@ -4370,19 +4361,19 @@
         <v>100</v>
       </c>
       <c r="K3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="N3" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="O3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P3">
         <v>1500</v>
@@ -4391,24 +4382,24 @@
         <v>100</v>
       </c>
       <c r="R3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C4">
         <v>3393</v>
       </c>
       <c r="F4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H4">
         <v>58000</v>
@@ -4417,16 +4408,16 @@
         <v>100</v>
       </c>
       <c r="L4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="M4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="O4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P4">
         <v>750</v>
@@ -4437,10 +4428,10 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C5">
         <v>3393</v>
@@ -4452,18 +4443,18 @@
         <v>18500</v>
       </c>
       <c r="F5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="6" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C6">
         <v>3393</v>
@@ -4475,24 +4466,24 @@
         <v>8950</v>
       </c>
       <c r="F6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G6" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H6">
         <v>22000</v>
       </c>
       <c r="I6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C7">
         <v>3393</v>
@@ -4500,27 +4491,27 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C8">
         <v>3393</v>
       </c>
       <c r="R8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="S8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C9">
         <v>3393</v>

--- a/Gowtham_ULS_New/TestData/ijaraTestData.xlsx
+++ b/Gowtham_ULS_New/TestData/ijaraTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" firstSheet="13" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" firstSheet="17" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -19,19 +19,23 @@
     <sheet name="TWAppDataEntryFacilityDetails" sheetId="11" r:id="rId10"/>
     <sheet name="IjaraAppDataEntryCFIncome" sheetId="12" r:id="rId11"/>
     <sheet name="ALoanAppdataEntryContactDetails" sheetId="13" r:id="rId12"/>
-    <sheet name="ALoanAppdataentryIncomedetails" sheetId="14" r:id="rId13"/>
-    <sheet name="ALADEntryIdentificationDetails" sheetId="16" r:id="rId14"/>
-    <sheet name="IjADataEntryIdentifiDetails" sheetId="17" r:id="rId15"/>
-    <sheet name="TWAppDataCheckAddressDetails" sheetId="18" r:id="rId16"/>
-    <sheet name="MurApDataEntryAppDetails" sheetId="19" r:id="rId17"/>
-    <sheet name="MuADCheckLivingExpenses" sheetId="20" r:id="rId18"/>
+    <sheet name="ALADEntryIdentificationDetails" sheetId="16" r:id="rId13"/>
+    <sheet name="IjADataEntryIdentifiDetails" sheetId="17" r:id="rId14"/>
+    <sheet name="TWAppDataCheckAddressDetails" sheetId="18" r:id="rId15"/>
+    <sheet name="MurApDataEntryAppDetails" sheetId="19" r:id="rId16"/>
+    <sheet name="MuADCheckLivingExpenses" sheetId="20" r:id="rId17"/>
+    <sheet name="PLNewAppCustomerDetails" sheetId="21" r:id="rId18"/>
+    <sheet name="AutoLoanCustomerSearch" sheetId="24" r:id="rId19"/>
+    <sheet name="ALAppdataEntryIncomedetails" sheetId="25" r:id="rId20"/>
+    <sheet name="ALAppdataEntryDocumentsDetails" sheetId="26" r:id="rId21"/>
+    <sheet name="AutoLoanExecution" sheetId="22" r:id="rId22"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="470">
   <si>
     <t>UserName</t>
   </si>
@@ -150,9 +154,6 @@
     <t>AT_IJCS_01</t>
   </si>
   <si>
-    <t>DS_AT_IJCS_01</t>
-  </si>
-  <si>
     <t>Customer Type</t>
   </si>
   <si>
@@ -183,9 +184,6 @@
     <t>AT_IJCS_02</t>
   </si>
   <si>
-    <t>DS_AT_IJCS_02</t>
-  </si>
-  <si>
     <t>Customer Name</t>
   </si>
   <si>
@@ -213,15 +211,9 @@
     <t>AT_IJCS_03</t>
   </si>
   <si>
-    <t>DS_AT_IJCS_03</t>
-  </si>
-  <si>
     <t>AT_IJCS_04</t>
   </si>
   <si>
-    <t>DS_AT_IJCS_04</t>
-  </si>
-  <si>
     <t>Customer ID</t>
   </si>
   <si>
@@ -792,9 +784,6 @@
     <t>!@#$!@#$%^</t>
   </si>
   <si>
-    <t>v0169</t>
-  </si>
-  <si>
     <t>AutoLoanAppdataEntryContactDetails</t>
   </si>
   <si>
@@ -804,9 +793,6 @@
     <t>AT_AL_APD_CD_01</t>
   </si>
   <si>
-    <t>DS_AT_AL_APD_CD_01</t>
-  </si>
-  <si>
     <t>AT_AL_APD_CD_02</t>
   </si>
   <si>
@@ -819,18 +805,6 @@
     <t>AT_AL_APD_CD_05</t>
   </si>
   <si>
-    <t>DS_AT_AL_APD_CD_02</t>
-  </si>
-  <si>
-    <t>DS_AT_AL_APD_CD_03</t>
-  </si>
-  <si>
-    <t>DS_AT_AL_APD_CD_04</t>
-  </si>
-  <si>
-    <t>DS_AT_AL_APD_CD_05</t>
-  </si>
-  <si>
     <t>9632145875</t>
   </si>
   <si>
@@ -846,33 +820,18 @@
     <t>AT_AL_INC_01</t>
   </si>
   <si>
-    <t>DS_AT_AL_INC_01</t>
-  </si>
-  <si>
     <t>AT_AL_INC_02</t>
   </si>
   <si>
-    <t>DS_AT_AL_INC_02</t>
-  </si>
-  <si>
     <t>AT_AL_INC_03</t>
   </si>
   <si>
-    <t>DS_AT_AL_INC_03</t>
-  </si>
-  <si>
     <t>AT_AL_INC_04</t>
   </si>
   <si>
-    <t>DS_AT_AL_INC_04</t>
-  </si>
-  <si>
     <t>AT_AL_INC_05</t>
   </si>
   <si>
-    <t>DS_AT_AL_INC_05</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Ashok Marg Jaipur Branch </t>
   </si>
   <si>
@@ -888,15 +847,6 @@
     <t>AT_AL_INC_08</t>
   </si>
   <si>
-    <t>DS_AT_AL_INC_06</t>
-  </si>
-  <si>
-    <t>DS_AT_AL_INC_07</t>
-  </si>
-  <si>
-    <t>DS_AT_AL_INC_08</t>
-  </si>
-  <si>
     <t>id_type</t>
   </si>
   <si>
@@ -954,24 +904,6 @@
     <t>AT_AL_IND_06</t>
   </si>
   <si>
-    <t>DS_AT_AL_IND_01</t>
-  </si>
-  <si>
-    <t>DS_AT_AL_IND_02</t>
-  </si>
-  <si>
-    <t>DS_AT_AL_IND_03</t>
-  </si>
-  <si>
-    <t>DS_AT_AL_IND_04</t>
-  </si>
-  <si>
-    <t>DS_AT_AL_IND_05</t>
-  </si>
-  <si>
-    <t>DS_AT_AL_IND_06</t>
-  </si>
-  <si>
     <t>8745632147856</t>
   </si>
   <si>
@@ -1186,6 +1118,333 @@
   </si>
   <si>
     <t xml:space="preserve">Developer </t>
+  </si>
+  <si>
+    <t>userType11</t>
+  </si>
+  <si>
+    <t>Personal Loan-New App</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>nationality</t>
+  </si>
+  <si>
+    <t>remarks</t>
+  </si>
+  <si>
+    <t>customer_type</t>
+  </si>
+  <si>
+    <t>customer_name</t>
+  </si>
+  <si>
+    <t>search_date_of_birth</t>
+  </si>
+  <si>
+    <t>customer_type_dropdown</t>
+  </si>
+  <si>
+    <t>application_type</t>
+  </si>
+  <si>
+    <t>salutation</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>middle_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>father_first_name</t>
+  </si>
+  <si>
+    <t>father_middle_name</t>
+  </si>
+  <si>
+    <t>father_last_name</t>
+  </si>
+  <si>
+    <t>spouse_first_name</t>
+  </si>
+  <si>
+    <t>spouse_middle_name</t>
+  </si>
+  <si>
+    <t>spouse_last_name</t>
+  </si>
+  <si>
+    <t>no_of_children</t>
+  </si>
+  <si>
+    <t>spouse_status</t>
+  </si>
+  <si>
+    <t>date_of_birth</t>
+  </si>
+  <si>
+    <t>education_level</t>
+  </si>
+  <si>
+    <t>maritail_status</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>Religion</t>
+  </si>
+  <si>
+    <t>residential_status</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>no_of_dependents</t>
+  </si>
+  <si>
+    <t>mothers_maiden_name</t>
+  </si>
+  <si>
+    <t>type_of_residency</t>
+  </si>
+  <si>
+    <t>industry_segmentation</t>
+  </si>
+  <si>
+    <t>is_income_considered</t>
+  </si>
+  <si>
+    <t>customer_profile</t>
+  </si>
+  <si>
+    <t>relationship</t>
+  </si>
+  <si>
+    <t>politically_exposed</t>
+  </si>
+  <si>
+    <t>phone_number</t>
+  </si>
+  <si>
+    <t>mobile_number_primary</t>
+  </si>
+  <si>
+    <t>mobile_number_secondary</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>prefered_contact_method</t>
+  </si>
+  <si>
+    <t>prefered_time_for_contact</t>
+  </si>
+  <si>
+    <t>numeric_input</t>
+  </si>
+  <si>
+    <t>Individual Customer</t>
+  </si>
+  <si>
+    <t>Vikram</t>
+  </si>
+  <si>
+    <t>AADHAR CARD</t>
+  </si>
+  <si>
+    <t>Primary Applicant</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Not Working</t>
+  </si>
+  <si>
+    <t>MALE</t>
+  </si>
+  <si>
+    <t>UG</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>Indian</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>HINDU</t>
+  </si>
+  <si>
+    <t>Resident</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Shushma</t>
+  </si>
+  <si>
+    <t>Self owned</t>
+  </si>
+  <si>
+    <t>Accomodation</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Small Software Companies. (Small Software Companies have an employee strength less than 50 people or total turnover less than Rs.50 crore)</t>
+  </si>
+  <si>
+    <t>SON</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>test098@gmail.com</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>AT_PL_NEWAPP_CD_07</t>
+  </si>
+  <si>
+    <t>dataSet_ID</t>
+  </si>
+  <si>
+    <t>ExecuteYes/No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>AT_PL_NEWAPP_CD_D1</t>
+  </si>
+  <si>
+    <t>AT_AL_APD_CD_06</t>
+  </si>
+  <si>
+    <t>AT_AL_APD_CD_01_D1</t>
+  </si>
+  <si>
+    <t>AT_AL_APD_CD_02_D1</t>
+  </si>
+  <si>
+    <t>AT_AL_APD_CD_03_D1</t>
+  </si>
+  <si>
+    <t>AT_AL_APD_CD_04_D1</t>
+  </si>
+  <si>
+    <t>AT_AL_APD_CD_05_D1</t>
+  </si>
+  <si>
+    <t>AT_AL_INC_01_D1</t>
+  </si>
+  <si>
+    <t>AT_Al_DOC_09</t>
+  </si>
+  <si>
+    <t>AT_Al_DOC_10</t>
+  </si>
+  <si>
+    <t>AT_AL_IND_07</t>
+  </si>
+  <si>
+    <t>AT_AL_IND_01_D1</t>
+  </si>
+  <si>
+    <t>AT_AL_IND_02_D1</t>
+  </si>
+  <si>
+    <t>AT_AL_IND_03_D1</t>
+  </si>
+  <si>
+    <t>AT_AL_IND_04_D1</t>
+  </si>
+  <si>
+    <t>AT_AL_IND_05_D1</t>
+  </si>
+  <si>
+    <t>AT_AL_IND_06_D1</t>
+  </si>
+  <si>
+    <t>AT_AL_CUS_01</t>
+  </si>
+  <si>
+    <t>AT_AL_CUS_02</t>
+  </si>
+  <si>
+    <t>AT_AL_CUS_03</t>
+  </si>
+  <si>
+    <t>AT_AL_CUS_04</t>
+  </si>
+  <si>
+    <t>AT_AL_CUS_05</t>
+  </si>
+  <si>
+    <t>AT_AL_CUS_06</t>
+  </si>
+  <si>
+    <t>AT_AL_CUS_07</t>
+  </si>
+  <si>
+    <t>AT_AL_CUS_08</t>
+  </si>
+  <si>
+    <t>AT_AL_CUS_09</t>
+  </si>
+  <si>
+    <t>AT_AL_CUS_10</t>
+  </si>
+  <si>
+    <t>AT_AL_CUS_11</t>
+  </si>
+  <si>
+    <t>AT_AL_CUS_01_D1</t>
+  </si>
+  <si>
+    <t>AT_IJCS_01_D1</t>
+  </si>
+  <si>
+    <t>AT_IJCS_02_D1</t>
+  </si>
+  <si>
+    <t>AT_IJCS_03_D1</t>
+  </si>
+  <si>
+    <t>AT_IJCS_04_D1</t>
+  </si>
+  <si>
+    <t>3050</t>
+  </si>
+  <si>
+    <t>5301</t>
+  </si>
+  <si>
+    <t>AT_Al_DOC_09_D1</t>
   </si>
 </sst>
 </file>
@@ -1357,7 +1616,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1383,23 +1642,507 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="40">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -1689,10 +2432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1719,136 +2462,150 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>253</v>
+        <v>467</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="B10" s="11">
         <v>3102</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="B11" s="11">
         <v>1266</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>378</v>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -1886,69 +2643,69 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H1" t="s">
         <v>179</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>180</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>181</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>182</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>183</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>184</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
+        <v>137</v>
+      </c>
+      <c r="O1" t="s">
         <v>185</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>186</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
         <v>187</v>
       </c>
-      <c r="M1" t="s">
+      <c r="R1" t="s">
         <v>188</v>
       </c>
-      <c r="N1" t="s">
-        <v>141</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>189</v>
-      </c>
-      <c r="P1" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>191</v>
-      </c>
-      <c r="R1" t="s">
-        <v>192</v>
-      </c>
-      <c r="S1" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C2">
         <v>3016</v>
@@ -1956,34 +2713,34 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C3">
         <v>3016</v>
       </c>
       <c r="D3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H3" t="s">
         <v>198</v>
       </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
         <v>199</v>
       </c>
-      <c r="F3" t="s">
+      <c r="J3" t="s">
         <v>200</v>
-      </c>
-      <c r="G3" t="s">
-        <v>201</v>
-      </c>
-      <c r="H3" t="s">
-        <v>202</v>
-      </c>
-      <c r="I3" t="s">
-        <v>203</v>
-      </c>
-      <c r="J3" t="s">
-        <v>204</v>
       </c>
       <c r="K3">
         <v>1000000</v>
@@ -1995,47 +2752,47 @@
         <v>60000</v>
       </c>
       <c r="N3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="O3">
         <v>2</v>
       </c>
       <c r="P3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C4">
         <v>3016</v>
       </c>
       <c r="E4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="Q4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C5">
         <v>3016</v>
       </c>
       <c r="R5" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="S5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -2060,69 +2817,69 @@
   <sheetData>
     <row r="1" spans="1:19" ht="39.75" thickBot="1">
       <c r="A1" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="H1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1">
       <c r="A2" s="8" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C2" s="9">
         <v>3393</v>
@@ -2135,7 +2892,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
@@ -2148,10 +2905,10 @@
     </row>
     <row r="3" spans="1:19" ht="39.75" thickBot="1">
       <c r="A3" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C3" s="9">
         <v>3393</v>
@@ -2163,10 +2920,10 @@
         <v>13000</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H3" s="9">
         <v>85000</v>
@@ -2176,19 +2933,19 @@
         <v>100</v>
       </c>
       <c r="K3" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="M3" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="L3" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>147</v>
-      </c>
       <c r="N3" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="P3" s="9">
         <v>1500</v>
@@ -2197,16 +2954,16 @@
         <v>100</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="S3" s="9"/>
     </row>
     <row r="4" spans="1:19" ht="27" thickBot="1">
       <c r="A4" s="8" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C4" s="9">
         <v>3393</v>
@@ -2214,10 +2971,10 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H4" s="9">
         <v>58000</v>
@@ -2228,16 +2985,16 @@
       </c>
       <c r="K4" s="9"/>
       <c r="L4" s="9" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="P4" s="9">
         <v>750</v>
@@ -2250,10 +3007,10 @@
     </row>
     <row r="5" spans="1:19" ht="39.75" thickBot="1">
       <c r="A5" s="8" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C5" s="9">
         <v>3393</v>
@@ -2265,10 +3022,10 @@
         <v>18500</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
@@ -2285,10 +3042,10 @@
     </row>
     <row r="6" spans="1:19" ht="39.75" thickBot="1">
       <c r="A6" s="8" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C6" s="9">
         <v>3393</v>
@@ -2300,16 +3057,16 @@
         <v>8950</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H6" s="9">
         <v>22000</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -2324,10 +3081,10 @@
     </row>
     <row r="7" spans="1:19" ht="15.75" thickBot="1">
       <c r="A7" s="8" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C7" s="9">
         <v>3393</v>
@@ -2351,10 +3108,10 @@
     </row>
     <row r="8" spans="1:19" ht="15.75" thickBot="1">
       <c r="A8" s="8" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C8" s="9">
         <v>3393</v>
@@ -2374,18 +3131,18 @@
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
       <c r="R8" s="9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="15.75" thickBot="1">
       <c r="A9" s="8" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C9" s="9">
         <v>3393</v>
@@ -2417,7 +3174,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2438,164 +3195,199 @@
     <col min="14" max="14" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1">
+    <row r="1" spans="1:14">
       <c r="A1" s="13" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="K1" s="13" t="s">
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="C2" s="17">
+        <v>5301</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="E2" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="H2" s="17">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="I2" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="J2" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="K2" s="17" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A2" s="8" t="s">
+      <c r="L2" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="M2" s="17">
+        <v>-987456321</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>437</v>
+      </c>
+      <c r="C3" s="17">
+        <v>5301</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="M3" s="17">
+        <v>-9875632</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>438</v>
+      </c>
+      <c r="C4" s="17">
+        <v>5301</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="C2">
-        <v>2971</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>439</v>
+      </c>
+      <c r="C5" s="17">
+        <v>5301</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>440</v>
+      </c>
+      <c r="C6" s="17">
+        <v>5301</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="L6" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="F2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G2" t="s">
-        <v>247</v>
-      </c>
-      <c r="H2" s="12">
-        <v>0.4236111111111111</v>
-      </c>
-      <c r="I2" t="s">
-        <v>248</v>
-      </c>
-      <c r="J2" t="s">
-        <v>249</v>
-      </c>
-      <c r="K2" t="s">
-        <v>250</v>
-      </c>
-      <c r="L2" t="s">
-        <v>251</v>
-      </c>
-      <c r="M2">
-        <v>-987456321</v>
-      </c>
-      <c r="N2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A3" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="C3">
-        <v>2971</v>
-      </c>
-      <c r="K3" t="s">
-        <v>250</v>
-      </c>
-      <c r="L3" t="s">
-        <v>251</v>
-      </c>
-      <c r="M3">
-        <v>-9875632</v>
-      </c>
-      <c r="N3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A4" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="C4">
-        <v>2971</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A5" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="C5">
-        <v>2971</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A6" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C6">
-        <v>2971</v>
-      </c>
-      <c r="K6" t="s">
-        <v>250</v>
-      </c>
-      <c r="L6" t="s">
-        <v>251</v>
-      </c>
-      <c r="M6">
+      <c r="M6" s="17">
         <f>M3-987456321</f>
         <v>-997331953</v>
       </c>
-      <c r="N6" t="s">
-        <v>252</v>
+      <c r="N6" s="17" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -2606,130 +3398,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
-    <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="C2" s="18">
-        <v>4138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="16" t="s">
-        <v>272</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>273</v>
-      </c>
-      <c r="C3" s="18">
-        <v>4138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="C4" s="18">
-        <v>4138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="C5" s="18">
-        <v>4138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="C6" s="19">
-        <v>4138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="C7" s="19">
-        <v>4138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="C8" s="19">
-        <v>4138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="C9" s="19">
-        <v>4138</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2749,150 +3421,86 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1">
       <c r="A1" s="13" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>235</v>
+        <v>355</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1">
       <c r="A2" s="8" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="C2">
-        <v>2971</v>
-      </c>
-      <c r="D2" t="s">
-        <v>296</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>314</v>
-      </c>
-      <c r="F2" t="s">
-        <v>315</v>
-      </c>
-      <c r="G2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A3" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="C3">
-        <v>2971</v>
-      </c>
-      <c r="E3" s="18"/>
-      <c r="H3" t="s">
-        <v>298</v>
-      </c>
-      <c r="I3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A4" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="C4">
-        <v>2971</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A5" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="C5">
-        <v>2971</v>
-      </c>
-      <c r="H5" t="s">
-        <v>298</v>
-      </c>
-      <c r="I5" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A6" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="C6">
-        <v>2971</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A7" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="C7">
-        <v>2971</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>313</v>
-      </c>
-      <c r="K7" t="s">
-        <v>300</v>
+        <v>445</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>468</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2904,21 +3512,21 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1">
       <c r="A1" s="13" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1">
       <c r="A2" s="8" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="C2">
         <v>2973</v>
@@ -2926,10 +3534,10 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1">
       <c r="A3" s="8" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="C3">
         <v>2973</v>
@@ -2937,10 +3545,10 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1">
       <c r="A4" s="8" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="C4">
         <v>2973</v>
@@ -2948,10 +3556,10 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1">
       <c r="A5" s="8" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="C5">
         <v>2973</v>
@@ -2959,10 +3567,10 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1">
       <c r="A6" s="8" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="C6">
         <v>2973</v>
@@ -2970,7 +3578,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="C10" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -2979,7 +3587,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC7"/>
   <sheetViews>
@@ -3021,132 +3629,132 @@
   <sheetData>
     <row r="1" spans="1:29">
       <c r="A1" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="X1" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="Z1" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="AA1" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="AB1" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="AC1" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="O1" s="13" t="s">
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" s="21" t="s">
         <v>342</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="B2" s="21" t="s">
         <v>343</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="U1" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="V1" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="W1" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="X1" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="Y1" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="Z1" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="AA1" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="AB1" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="AC1" s="13" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29">
-      <c r="A2" s="23" t="s">
-        <v>366</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>367</v>
       </c>
       <c r="C2">
         <v>3061</v>
       </c>
       <c r="D2" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="E2" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="F2" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="G2" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="H2" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="I2" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J2" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="K2" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="L2" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="M2" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="N2">
         <v>987456</v>
@@ -3167,13 +3775,13 @@
         <v>101010</v>
       </c>
       <c r="T2" t="s">
-        <v>364</v>
-      </c>
-      <c r="U2" s="21">
+        <v>340</v>
+      </c>
+      <c r="U2" s="19">
         <v>36779</v>
       </c>
       <c r="V2" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="W2">
         <v>9874563210</v>
@@ -3182,7 +3790,7 @@
         <v>10000</v>
       </c>
       <c r="Y2" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -3206,12 +3814,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3236,79 +3844,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="45">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="Q1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="R1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="S1" s="20" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="17" t="s">
-        <v>375</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>376</v>
+      <c r="A2" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>352</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="F2" s="1">
         <v>10000</v>
@@ -3332,25 +3940,25 @@
         <v>34</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="R2" s="1">
         <v>10000</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -3359,12 +3967,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3375,22 +3983,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>379</v>
+      <c r="C1" s="20" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17" t="s">
-        <v>380</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>381</v>
+      <c r="A2" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>357</v>
       </c>
       <c r="C2">
         <v>3512</v>
@@ -3402,6 +4010,614 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AV4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="22" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="130" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:48">
+      <c r="A1" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="T1" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="U1" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="V1" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="W1" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="X1" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="Y1" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="Z1" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="AA1" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="AB1" s="20" t="s">
+        <v>387</v>
+      </c>
+      <c r="AC1" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD1" s="20" t="s">
+        <v>389</v>
+      </c>
+      <c r="AE1" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="AF1" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="AG1" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="AH1" s="20" t="s">
+        <v>393</v>
+      </c>
+      <c r="AI1" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="AJ1" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="AK1" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="AL1" s="20" t="s">
+        <v>397</v>
+      </c>
+      <c r="AM1" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="AN1" s="20" t="s">
+        <v>398</v>
+      </c>
+      <c r="AO1" s="20" t="s">
+        <v>399</v>
+      </c>
+      <c r="AP1" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="AQ1" s="20" t="s">
+        <v>401</v>
+      </c>
+      <c r="AR1" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="AS1" s="20" t="s">
+        <v>403</v>
+      </c>
+      <c r="AT1" s="20" t="s">
+        <v>404</v>
+      </c>
+      <c r="AU1" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="AV1" s="20" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:48">
+      <c r="A2" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="F2" s="17">
+        <v>123654789012</v>
+      </c>
+      <c r="G2" s="23">
+        <v>36017</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="T2" s="17">
+        <v>2</v>
+      </c>
+      <c r="U2" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="V2" s="23">
+        <v>36078</v>
+      </c>
+      <c r="W2" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="X2" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y2" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="Z2" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="AA2" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="AB2" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="AC2" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="AD2" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="AE2" s="17">
+        <v>2</v>
+      </c>
+      <c r="AF2" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="AG2" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="AH2" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="AI2" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="AJ2" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="AK2" s="17" t="s">
+        <v>425</v>
+      </c>
+      <c r="AL2" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="AM2" s="17" t="s">
+        <v>427</v>
+      </c>
+      <c r="AN2" s="17">
+        <v>9657785656</v>
+      </c>
+      <c r="AO2" s="17">
+        <v>9874556328</v>
+      </c>
+      <c r="AP2" s="17">
+        <v>9654120147</v>
+      </c>
+      <c r="AQ2" s="17" t="s">
+        <v>428</v>
+      </c>
+      <c r="AR2" s="17" t="s">
+        <v>429</v>
+      </c>
+      <c r="AS2" s="24">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AT2" s="17"/>
+      <c r="AU2" s="17"/>
+      <c r="AV2" s="17"/>
+    </row>
+    <row r="3" spans="1:48">
+      <c r="G3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="AS3" s="12"/>
+    </row>
+    <row r="4" spans="1:48">
+      <c r="G4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="AS4" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AF2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="25.85546875" customWidth="1"/>
+    <col min="10" max="10" width="29.42578125" customWidth="1"/>
+    <col min="11" max="11" width="28.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" customWidth="1"/>
+    <col min="14" max="14" width="28.5703125" customWidth="1"/>
+    <col min="15" max="15" width="20.7109375" customWidth="1"/>
+    <col min="16" max="17" width="9" customWidth="1"/>
+    <col min="18" max="18" width="17.7109375" customWidth="1"/>
+    <col min="19" max="19" width="31.7109375" customWidth="1"/>
+    <col min="20" max="20" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.5703125" customWidth="1"/>
+    <col min="24" max="24" width="8.7109375" customWidth="1"/>
+    <col min="25" max="25" width="9" customWidth="1"/>
+    <col min="26" max="26" width="13.85546875" customWidth="1"/>
+    <col min="27" max="27" width="9" customWidth="1"/>
+    <col min="28" max="28" width="8.42578125" customWidth="1"/>
+    <col min="29" max="29" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.5703125" customWidth="1"/>
+    <col min="31" max="31" width="9" customWidth="1"/>
+    <col min="32" max="32" width="8.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" ht="48.75" customHeight="1">
+      <c r="A1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y1" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z1" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA1" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB1" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC1" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD1" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF1" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32">
+      <c r="A2" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="17">
+        <v>9574315615</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" s="17">
+        <v>1234</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="S2" s="17">
+        <v>10000</v>
+      </c>
+      <c r="T2" s="17">
+        <v>10000</v>
+      </c>
+      <c r="U2" s="17">
+        <v>10000</v>
+      </c>
+      <c r="V2" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="W2" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="X2" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y2" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z2" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="AA2" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="AB2" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="AC2" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="AD2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE2" s="17">
+        <v>10000</v>
+      </c>
+      <c r="AF2" s="17" t="s">
+        <v>360</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3446,12 +4662,718 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="C2" s="17">
+        <v>5301</v>
+      </c>
+      <c r="D2" s="17">
+        <v>3393</v>
+      </c>
+      <c r="E2" s="17">
+        <v>1450000</v>
+      </c>
+      <c r="F2" s="17">
+        <v>13000</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="I2" s="17">
+        <v>85000</v>
+      </c>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17">
+        <v>100</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q2" s="17">
+        <v>1500</v>
+      </c>
+      <c r="R2" s="17">
+        <v>100</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>469</v>
+      </c>
+      <c r="C2" s="17">
+        <v>5301</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A4" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>437</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>438</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>439</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>440</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>440</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>469</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>469</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>445</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>445</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>446</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>447</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>448</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>450</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="E35" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:C10">
+    <cfRule type="cellIs" dxfId="39" priority="27" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="28" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:C17">
+    <cfRule type="cellIs" dxfId="37" priority="17" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="18" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:C17">
+    <cfRule type="cellIs" dxfId="35" priority="15" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="16" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:C14">
+    <cfRule type="cellIs" dxfId="33" priority="13" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="14" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:C25">
+    <cfRule type="cellIs" dxfId="31" priority="11" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="12" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:C36">
+    <cfRule type="cellIs" dxfId="29" priority="9" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="10" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:C30">
+    <cfRule type="cellIs" dxfId="25" priority="7" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="8" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:C21">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:C21">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:C14">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C36">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3543,13 +5465,13 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="D2" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="E2" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3581,7 +5503,7 @@
         <v>34</v>
       </c>
       <c r="M3" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3592,16 +5514,16 @@
         <v>36</v>
       </c>
       <c r="M4" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="N4" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="O4" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="P4" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="Q4" t="s">
         <v>37</v>
@@ -3610,7 +5532,12 @@
         <v>10000</v>
       </c>
       <c r="S4" t="s">
-        <v>384</v>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="17" spans="11:11">
+      <c r="K17" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -3623,8 +5550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5:O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3653,43 +5580,43 @@
         <v>5</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="M1" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -3699,51 +5626,51 @@
         <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>463</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2">
         <v>2022</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
+        <v>464</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
         <v>50</v>
       </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>52</v>
-      </c>
       <c r="I3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="M3">
         <v>1234</v>
@@ -3751,25 +5678,25 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>465</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M4">
         <v>1234</v>
@@ -3777,43 +5704,42 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>466</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M5">
         <v>1234</v>
       </c>
       <c r="N5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="DS_@AT_IJCS_01"/>
-    <hyperlink ref="K3" r:id="rId2"/>
+    <hyperlink ref="K3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3847,61 +5773,61 @@
         <v>5</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E2" s="1">
         <v>100</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G2" s="1">
         <v>-100</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J2" s="1">
         <v>1000</v>
@@ -3938,15 +5864,15 @@
         <v>5</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C2" s="3">
         <v>3620</v>
@@ -3954,10 +5880,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C3" s="3">
         <v>3620</v>
@@ -3965,10 +5891,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C4" s="3">
         <v>3620</v>
@@ -3976,10 +5902,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C5" s="3">
         <v>3620</v>
@@ -4023,51 +5949,51 @@
         <v>5</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D2" s="1">
         <v>450</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F2" s="1">
         <v>10</v>
@@ -4121,48 +6047,48 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" t="s">
         <v>107</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>108</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>109</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>110</v>
-      </c>
-      <c r="H1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I1" t="s">
-        <v>112</v>
-      </c>
-      <c r="J1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D2">
         <v>2974</v>
@@ -4170,19 +6096,19 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>2974</v>
       </c>
       <c r="E3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F3">
         <v>4000</v>
@@ -4202,13 +6128,13 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D4">
         <v>2974</v>
@@ -4217,10 +6143,10 @@
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="J4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -4232,8 +6158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4261,83 +6187,83 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
       <c r="C1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" t="s">
         <v>127</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" t="s">
         <v>128</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>129</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>130</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>131</v>
       </c>
-      <c r="H1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>132</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>133</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>134</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>135</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>136</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>137</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>138</v>
-      </c>
-      <c r="P1" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>140</v>
-      </c>
-      <c r="R1" t="s">
-        <v>141</v>
-      </c>
-      <c r="S1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="6" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C2">
         <v>3393</v>
       </c>
       <c r="K2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C3">
         <v>3393</v>
@@ -4349,10 +6275,10 @@
         <v>13000</v>
       </c>
       <c r="F3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H3">
         <v>85000</v>
@@ -4361,19 +6287,19 @@
         <v>100</v>
       </c>
       <c r="K3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="M3" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="N3" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="O3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="P3">
         <v>1500</v>
@@ -4382,24 +6308,24 @@
         <v>100</v>
       </c>
       <c r="R3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C4">
         <v>3393</v>
       </c>
       <c r="F4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H4">
         <v>58000</v>
@@ -4408,16 +6334,16 @@
         <v>100</v>
       </c>
       <c r="L4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="M4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="N4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="O4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="P4">
         <v>750</v>
@@ -4428,10 +6354,10 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C5">
         <v>3393</v>
@@ -4443,18 +6369,18 @@
         <v>18500</v>
       </c>
       <c r="F5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="6" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C6">
         <v>3393</v>
@@ -4466,24 +6392,24 @@
         <v>8950</v>
       </c>
       <c r="F6" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H6">
         <v>22000</v>
       </c>
       <c r="I6" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C7">
         <v>3393</v>
@@ -4491,27 +6417,27 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C8">
         <v>3393</v>
       </c>
       <c r="R8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="S8" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C9">
         <v>3393</v>

--- a/Gowtham_ULS_New/TestData/ijaraTestData.xlsx
+++ b/Gowtham_ULS_New/TestData/ijaraTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" firstSheet="17" activeTab="21"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" firstSheet="11" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -29,13 +29,14 @@
     <sheet name="ALAppdataEntryIncomedetails" sheetId="25" r:id="rId20"/>
     <sheet name="ALAppdataEntryDocumentsDetails" sheetId="26" r:id="rId21"/>
     <sheet name="AutoLoanExecution" sheetId="22" r:id="rId22"/>
+    <sheet name="RtALAppDataEntryApplicationDeta" sheetId="27" r:id="rId23"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="473">
   <si>
     <t>UserName</t>
   </si>
@@ -1426,18 +1427,6 @@
     <t>AT_AL_CUS_01_D1</t>
   </si>
   <si>
-    <t>AT_IJCS_01_D1</t>
-  </si>
-  <si>
-    <t>AT_IJCS_02_D1</t>
-  </si>
-  <si>
-    <t>AT_IJCS_03_D1</t>
-  </si>
-  <si>
-    <t>AT_IJCS_04_D1</t>
-  </si>
-  <si>
     <t>3050</t>
   </si>
   <si>
@@ -1445,6 +1434,27 @@
   </si>
   <si>
     <t>AT_Al_DOC_09_D1</t>
+  </si>
+  <si>
+    <t>DS_AT_IJCS_01</t>
+  </si>
+  <si>
+    <t>DS_AT_IJCS_02</t>
+  </si>
+  <si>
+    <t>DS_AT_IJCS_03</t>
+  </si>
+  <si>
+    <t>DS_AT_IJCS_04</t>
+  </si>
+  <si>
+    <t>AT_RD_ADE_AD_01</t>
+  </si>
+  <si>
+    <t>AT_RD_ADE_AD_01_D1</t>
+  </si>
+  <si>
+    <t>10:05</t>
   </si>
 </sst>
 </file>
@@ -1616,7 +1626,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1656,252 +1666,13 @@
     </xf>
     <xf numFmtId="15" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <font>
         <condense val="0"/>
@@ -2543,7 +2314,7 @@
         <v>250</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>63</v>
@@ -3173,8 +2944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3261,8 +3032,8 @@
       <c r="G2" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="H2" s="17">
-        <v>0.4236111111111111</v>
+      <c r="H2" s="18" t="s">
+        <v>472</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>244</v>
@@ -3462,7 +3233,7 @@
         <v>445</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>278</v>
@@ -4378,8 +4149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection sqref="A1:AF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4667,7 +4438,7 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4826,7 +4597,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4852,7 +4623,7 @@
         <v>442</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C2" s="17">
         <v>5301</v>
@@ -4867,8 +4638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4931,7 +4702,7 @@
         <v>438</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4942,7 +4713,7 @@
         <v>439</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4972,7 +4743,7 @@
         <v>442</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>426</v>
@@ -4983,7 +4754,7 @@
         <v>443</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>426</v>
@@ -5280,91 +5051,339 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C10">
-    <cfRule type="cellIs" dxfId="39" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="27" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="28" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C17">
-    <cfRule type="cellIs" dxfId="37" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:C17">
-    <cfRule type="cellIs" dxfId="35" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C14">
-    <cfRule type="cellIs" dxfId="33" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:C25">
-    <cfRule type="cellIs" dxfId="31" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C36">
-    <cfRule type="cellIs" dxfId="29" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C30">
-    <cfRule type="cellIs" dxfId="25" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:C21">
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:C21">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:C14">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C36">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AG2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="22" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="30" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" ht="60" customHeight="1">
+      <c r="A1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB1" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC1" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD1" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE1" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG1" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
+      <c r="A2" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="C2" s="25">
+        <v>5301</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="17">
+        <v>9574315615</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="17">
+        <v>1234</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="T2" s="17">
+        <v>10000</v>
+      </c>
+      <c r="U2" s="17">
+        <v>10000</v>
+      </c>
+      <c r="V2" s="17">
+        <v>10000</v>
+      </c>
+      <c r="W2" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="X2" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y2" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z2" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA2" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="AB2" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="AC2" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="AD2" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="AE2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF2" s="17">
+        <v>10000</v>
+      </c>
+      <c r="AG2" s="17" t="s">
+        <v>360</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5550,8 +5569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5:O5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5626,7 +5645,7 @@
         <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C2" t="s">
         <v>40</v>
@@ -5649,7 +5668,7 @@
         <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C3" t="s">
         <v>40</v>
@@ -5681,7 +5700,7 @@
         <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C4" t="s">
         <v>40</v>
@@ -5707,7 +5726,7 @@
         <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C5" t="s">
         <v>40</v>
